--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(メッセージ)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(メッセージ)_サンプル.xlsx
@@ -3621,6 +3621,114 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3657,9 +3765,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3687,112 +3792,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4319,20 +4319,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1952625" y="2085975"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2266951" y="2486025"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4350,27 +4350,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4378,27 +4366,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -4414,20 +4390,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609725" y="1524000"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1790699" y="2200276"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4445,27 +4421,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4473,27 +4437,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -4509,20 +4461,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1885950" y="2209800"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2143125" y="2457450"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4540,27 +4492,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4568,27 +4508,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6139,19 +6067,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="4724400"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4686300" y="5076824"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6169,27 +6097,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6197,27 +6113,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6229,19 +6133,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="13106400"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4819651" y="11753851"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6259,27 +6163,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6287,27 +6179,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6557,19 +6437,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5657850" y="4162425"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4733925" y="4257675"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6587,27 +6467,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6615,27 +6483,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6647,19 +6503,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>552450</xdr:rowOff>
+      <xdr:rowOff>590550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5819775" y="11953875"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5038725" y="11991975"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6677,27 +6533,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6705,27 +6549,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6917,19 +6749,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5248275" y="1247775"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4829175" y="1343026"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6947,27 +6779,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6975,27 +6795,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7914,57 +7722,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="244" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="222" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="259" t="s">
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="237" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="241" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="219" t="s">
         <v>199</v>
       </c>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="268" t="str">
+      <c r="AB1" s="221"/>
+      <c r="AC1" s="246" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="269"/>
-      <c r="AF1" s="270"/>
-      <c r="AG1" s="235">
+      <c r="AD1" s="247"/>
+      <c r="AE1" s="247"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="213">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="237"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="215"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7972,53 +7780,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="219" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="244" t="s">
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="222" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="241" t="s">
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="AB2" s="243"/>
-      <c r="AC2" s="247" t="str">
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="225" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="235" t="str">
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="213" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="236"/>
-      <c r="AI2" s="237"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="215"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -8026,45 +7834,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="219" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="244" t="s">
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="222" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="243"/>
-      <c r="AC3" s="268"/>
-      <c r="AD3" s="269"/>
-      <c r="AE3" s="269"/>
-      <c r="AF3" s="270"/>
-      <c r="AG3" s="235"/>
-      <c r="AH3" s="236"/>
-      <c r="AI3" s="237"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="247"/>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="248"/>
+      <c r="AG3" s="213"/>
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="215"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -8101,97 +7909,97 @@
       <c r="A7" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="216" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="238" t="s">
+      <c r="C7" s="217"/>
+      <c r="D7" s="216" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="240"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="238" t="s">
+      <c r="E7" s="218"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="240"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="238" t="s">
+      <c r="H7" s="218"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="240"/>
-      <c r="N7" s="240"/>
-      <c r="O7" s="240"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="238" t="s">
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="217"/>
+      <c r="Q7" s="216" t="s">
         <v>208</v>
       </c>
-      <c r="R7" s="240"/>
-      <c r="S7" s="240"/>
-      <c r="T7" s="240"/>
-      <c r="U7" s="240"/>
-      <c r="V7" s="240"/>
-      <c r="W7" s="240"/>
-      <c r="X7" s="240"/>
-      <c r="Y7" s="240"/>
-      <c r="Z7" s="240"/>
-      <c r="AA7" s="240"/>
-      <c r="AB7" s="240"/>
-      <c r="AC7" s="240"/>
-      <c r="AD7" s="240"/>
-      <c r="AE7" s="239"/>
-      <c r="AF7" s="238" t="s">
+      <c r="R7" s="218"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="218"/>
+      <c r="Y7" s="218"/>
+      <c r="Z7" s="218"/>
+      <c r="AA7" s="218"/>
+      <c r="AB7" s="218"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="218"/>
+      <c r="AE7" s="217"/>
+      <c r="AF7" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="AG7" s="240"/>
-      <c r="AH7" s="240"/>
-      <c r="AI7" s="239"/>
+      <c r="AG7" s="218"/>
+      <c r="AH7" s="218"/>
+      <c r="AI7" s="217"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="261" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="228">
+      <c r="C8" s="262"/>
+      <c r="D8" s="263">
         <v>43336</v>
       </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="226" t="s">
+      <c r="E8" s="264"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="261" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="231"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="232" t="s">
+      <c r="H8" s="266"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="267" t="s">
         <v>223</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="233"/>
-      <c r="N8" s="233"/>
-      <c r="O8" s="233"/>
-      <c r="P8" s="234"/>
-      <c r="Q8" s="232" t="s">
+      <c r="K8" s="268"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="268"/>
+      <c r="O8" s="268"/>
+      <c r="P8" s="269"/>
+      <c r="Q8" s="267" t="s">
         <v>224</v>
       </c>
-      <c r="R8" s="233"/>
-      <c r="S8" s="233"/>
-      <c r="T8" s="233"/>
-      <c r="U8" s="233"/>
-      <c r="V8" s="233"/>
-      <c r="W8" s="233"/>
-      <c r="X8" s="233"/>
-      <c r="Y8" s="233"/>
-      <c r="Z8" s="233"/>
-      <c r="AA8" s="233"/>
-      <c r="AB8" s="233"/>
-      <c r="AC8" s="233"/>
-      <c r="AD8" s="233"/>
-      <c r="AE8" s="234"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="268"/>
+      <c r="T8" s="268"/>
+      <c r="U8" s="268"/>
+      <c r="V8" s="268"/>
+      <c r="W8" s="268"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="268"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="269"/>
       <c r="AF8" s="69" t="s">
         <v>225</v>
       </c>
@@ -8201,934 +8009,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="213"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="221"/>
-      <c r="Q9" s="222"/>
-      <c r="R9" s="223"/>
-      <c r="S9" s="223"/>
-      <c r="T9" s="223"/>
-      <c r="U9" s="223"/>
-      <c r="V9" s="223"/>
-      <c r="W9" s="223"/>
-      <c r="X9" s="223"/>
-      <c r="Y9" s="223"/>
-      <c r="Z9" s="223"/>
-      <c r="AA9" s="223"/>
-      <c r="AB9" s="223"/>
-      <c r="AC9" s="223"/>
-      <c r="AD9" s="223"/>
-      <c r="AE9" s="224"/>
-      <c r="AF9" s="219"/>
-      <c r="AG9" s="220"/>
-      <c r="AH9" s="220"/>
-      <c r="AI9" s="221"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="256"/>
+      <c r="M9" s="256"/>
+      <c r="N9" s="256"/>
+      <c r="O9" s="256"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="259"/>
+      <c r="S9" s="259"/>
+      <c r="T9" s="259"/>
+      <c r="U9" s="259"/>
+      <c r="V9" s="259"/>
+      <c r="W9" s="259"/>
+      <c r="X9" s="259"/>
+      <c r="Y9" s="259"/>
+      <c r="Z9" s="259"/>
+      <c r="AA9" s="259"/>
+      <c r="AB9" s="259"/>
+      <c r="AC9" s="259"/>
+      <c r="AD9" s="259"/>
+      <c r="AE9" s="260"/>
+      <c r="AF9" s="255"/>
+      <c r="AG9" s="256"/>
+      <c r="AH9" s="256"/>
+      <c r="AI9" s="257"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="213"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220"/>
-      <c r="P10" s="221"/>
-      <c r="Q10" s="222"/>
-      <c r="R10" s="223"/>
-      <c r="S10" s="223"/>
-      <c r="T10" s="223"/>
-      <c r="U10" s="223"/>
-      <c r="V10" s="223"/>
-      <c r="W10" s="223"/>
-      <c r="X10" s="223"/>
-      <c r="Y10" s="223"/>
-      <c r="Z10" s="223"/>
-      <c r="AA10" s="223"/>
-      <c r="AB10" s="223"/>
-      <c r="AC10" s="223"/>
-      <c r="AD10" s="223"/>
-      <c r="AE10" s="224"/>
-      <c r="AF10" s="219"/>
-      <c r="AG10" s="220"/>
-      <c r="AH10" s="220"/>
-      <c r="AI10" s="221"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="250"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="256"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="256"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="259"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="259"/>
+      <c r="U10" s="259"/>
+      <c r="V10" s="259"/>
+      <c r="W10" s="259"/>
+      <c r="X10" s="259"/>
+      <c r="Y10" s="259"/>
+      <c r="Z10" s="259"/>
+      <c r="AA10" s="259"/>
+      <c r="AB10" s="259"/>
+      <c r="AC10" s="259"/>
+      <c r="AD10" s="259"/>
+      <c r="AE10" s="260"/>
+      <c r="AF10" s="255"/>
+      <c r="AG10" s="256"/>
+      <c r="AH10" s="256"/>
+      <c r="AI10" s="257"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="213"/>
-      <c r="C11" s="214"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="221"/>
-      <c r="Q11" s="222"/>
-      <c r="R11" s="223"/>
-      <c r="S11" s="223"/>
-      <c r="T11" s="223"/>
-      <c r="U11" s="223"/>
-      <c r="V11" s="223"/>
-      <c r="W11" s="223"/>
-      <c r="X11" s="223"/>
-      <c r="Y11" s="223"/>
-      <c r="Z11" s="223"/>
-      <c r="AA11" s="223"/>
-      <c r="AB11" s="223"/>
-      <c r="AC11" s="223"/>
-      <c r="AD11" s="223"/>
-      <c r="AE11" s="224"/>
-      <c r="AF11" s="219"/>
-      <c r="AG11" s="220"/>
-      <c r="AH11" s="220"/>
-      <c r="AI11" s="221"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="250"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="255"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="256"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="259"/>
+      <c r="S11" s="259"/>
+      <c r="T11" s="259"/>
+      <c r="U11" s="259"/>
+      <c r="V11" s="259"/>
+      <c r="W11" s="259"/>
+      <c r="X11" s="259"/>
+      <c r="Y11" s="259"/>
+      <c r="Z11" s="259"/>
+      <c r="AA11" s="259"/>
+      <c r="AB11" s="259"/>
+      <c r="AC11" s="259"/>
+      <c r="AD11" s="259"/>
+      <c r="AE11" s="260"/>
+      <c r="AF11" s="255"/>
+      <c r="AG11" s="256"/>
+      <c r="AH11" s="256"/>
+      <c r="AI11" s="257"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="213"/>
-      <c r="C12" s="214"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="214"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="220"/>
-      <c r="P12" s="221"/>
-      <c r="Q12" s="222"/>
-      <c r="R12" s="223"/>
-      <c r="S12" s="223"/>
-      <c r="T12" s="223"/>
-      <c r="U12" s="223"/>
-      <c r="V12" s="223"/>
-      <c r="W12" s="223"/>
-      <c r="X12" s="223"/>
-      <c r="Y12" s="223"/>
-      <c r="Z12" s="223"/>
-      <c r="AA12" s="223"/>
-      <c r="AB12" s="223"/>
-      <c r="AC12" s="223"/>
-      <c r="AD12" s="223"/>
-      <c r="AE12" s="224"/>
-      <c r="AF12" s="219"/>
-      <c r="AG12" s="220"/>
-      <c r="AH12" s="220"/>
-      <c r="AI12" s="221"/>
+      <c r="B12" s="249"/>
+      <c r="C12" s="250"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="250"/>
+      <c r="J12" s="255"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="256"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="257"/>
+      <c r="Q12" s="258"/>
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="259"/>
+      <c r="U12" s="259"/>
+      <c r="V12" s="259"/>
+      <c r="W12" s="259"/>
+      <c r="X12" s="259"/>
+      <c r="Y12" s="259"/>
+      <c r="Z12" s="259"/>
+      <c r="AA12" s="259"/>
+      <c r="AB12" s="259"/>
+      <c r="AC12" s="259"/>
+      <c r="AD12" s="259"/>
+      <c r="AE12" s="260"/>
+      <c r="AF12" s="255"/>
+      <c r="AG12" s="256"/>
+      <c r="AH12" s="256"/>
+      <c r="AI12" s="257"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="213"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="221"/>
-      <c r="Q13" s="222"/>
-      <c r="R13" s="223"/>
-      <c r="S13" s="223"/>
-      <c r="T13" s="223"/>
-      <c r="U13" s="223"/>
-      <c r="V13" s="223"/>
-      <c r="W13" s="223"/>
-      <c r="X13" s="223"/>
-      <c r="Y13" s="223"/>
-      <c r="Z13" s="223"/>
-      <c r="AA13" s="223"/>
-      <c r="AB13" s="223"/>
-      <c r="AC13" s="223"/>
-      <c r="AD13" s="223"/>
-      <c r="AE13" s="224"/>
-      <c r="AF13" s="219"/>
-      <c r="AG13" s="220"/>
-      <c r="AH13" s="220"/>
-      <c r="AI13" s="221"/>
+      <c r="B13" s="249"/>
+      <c r="C13" s="250"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="250"/>
+      <c r="J13" s="255"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="256"/>
+      <c r="M13" s="256"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="256"/>
+      <c r="P13" s="257"/>
+      <c r="Q13" s="258"/>
+      <c r="R13" s="259"/>
+      <c r="S13" s="259"/>
+      <c r="T13" s="259"/>
+      <c r="U13" s="259"/>
+      <c r="V13" s="259"/>
+      <c r="W13" s="259"/>
+      <c r="X13" s="259"/>
+      <c r="Y13" s="259"/>
+      <c r="Z13" s="259"/>
+      <c r="AA13" s="259"/>
+      <c r="AB13" s="259"/>
+      <c r="AC13" s="259"/>
+      <c r="AD13" s="259"/>
+      <c r="AE13" s="260"/>
+      <c r="AF13" s="255"/>
+      <c r="AG13" s="256"/>
+      <c r="AH13" s="256"/>
+      <c r="AI13" s="257"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="213"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="222"/>
-      <c r="R14" s="223"/>
-      <c r="S14" s="223"/>
-      <c r="T14" s="223"/>
-      <c r="U14" s="223"/>
-      <c r="V14" s="223"/>
-      <c r="W14" s="223"/>
-      <c r="X14" s="223"/>
-      <c r="Y14" s="223"/>
-      <c r="Z14" s="223"/>
-      <c r="AA14" s="223"/>
-      <c r="AB14" s="223"/>
-      <c r="AC14" s="223"/>
-      <c r="AD14" s="223"/>
-      <c r="AE14" s="224"/>
-      <c r="AF14" s="219"/>
-      <c r="AG14" s="220"/>
-      <c r="AH14" s="220"/>
-      <c r="AI14" s="221"/>
+      <c r="B14" s="249"/>
+      <c r="C14" s="250"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="256"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="256"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="257"/>
+      <c r="Q14" s="258"/>
+      <c r="R14" s="259"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="259"/>
+      <c r="V14" s="259"/>
+      <c r="W14" s="259"/>
+      <c r="X14" s="259"/>
+      <c r="Y14" s="259"/>
+      <c r="Z14" s="259"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="259"/>
+      <c r="AC14" s="259"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="260"/>
+      <c r="AF14" s="255"/>
+      <c r="AG14" s="256"/>
+      <c r="AH14" s="256"/>
+      <c r="AI14" s="257"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="214"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="221"/>
-      <c r="Q15" s="222"/>
-      <c r="R15" s="223"/>
-      <c r="S15" s="223"/>
-      <c r="T15" s="223"/>
-      <c r="U15" s="223"/>
-      <c r="V15" s="223"/>
-      <c r="W15" s="223"/>
-      <c r="X15" s="223"/>
-      <c r="Y15" s="223"/>
-      <c r="Z15" s="223"/>
-      <c r="AA15" s="223"/>
-      <c r="AB15" s="223"/>
-      <c r="AC15" s="223"/>
-      <c r="AD15" s="223"/>
-      <c r="AE15" s="224"/>
-      <c r="AF15" s="219"/>
-      <c r="AG15" s="220"/>
-      <c r="AH15" s="220"/>
-      <c r="AI15" s="221"/>
+      <c r="B15" s="249"/>
+      <c r="C15" s="250"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="250"/>
+      <c r="J15" s="255"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="257"/>
+      <c r="Q15" s="258"/>
+      <c r="R15" s="259"/>
+      <c r="S15" s="259"/>
+      <c r="T15" s="259"/>
+      <c r="U15" s="259"/>
+      <c r="V15" s="259"/>
+      <c r="W15" s="259"/>
+      <c r="X15" s="259"/>
+      <c r="Y15" s="259"/>
+      <c r="Z15" s="259"/>
+      <c r="AA15" s="259"/>
+      <c r="AB15" s="259"/>
+      <c r="AC15" s="259"/>
+      <c r="AD15" s="259"/>
+      <c r="AE15" s="260"/>
+      <c r="AF15" s="255"/>
+      <c r="AG15" s="256"/>
+      <c r="AH15" s="256"/>
+      <c r="AI15" s="257"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="213"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="221"/>
-      <c r="Q16" s="222"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="223"/>
-      <c r="U16" s="223"/>
-      <c r="V16" s="223"/>
-      <c r="W16" s="223"/>
-      <c r="X16" s="223"/>
-      <c r="Y16" s="223"/>
-      <c r="Z16" s="223"/>
-      <c r="AA16" s="223"/>
-      <c r="AB16" s="223"/>
-      <c r="AC16" s="223"/>
-      <c r="AD16" s="223"/>
-      <c r="AE16" s="224"/>
-      <c r="AF16" s="219"/>
-      <c r="AG16" s="220"/>
-      <c r="AH16" s="220"/>
-      <c r="AI16" s="221"/>
+      <c r="B16" s="249"/>
+      <c r="C16" s="250"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="253"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="250"/>
+      <c r="J16" s="255"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="256"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
+      <c r="Q16" s="258"/>
+      <c r="R16" s="259"/>
+      <c r="S16" s="259"/>
+      <c r="T16" s="259"/>
+      <c r="U16" s="259"/>
+      <c r="V16" s="259"/>
+      <c r="W16" s="259"/>
+      <c r="X16" s="259"/>
+      <c r="Y16" s="259"/>
+      <c r="Z16" s="259"/>
+      <c r="AA16" s="259"/>
+      <c r="AB16" s="259"/>
+      <c r="AC16" s="259"/>
+      <c r="AD16" s="259"/>
+      <c r="AE16" s="260"/>
+      <c r="AF16" s="255"/>
+      <c r="AG16" s="256"/>
+      <c r="AH16" s="256"/>
+      <c r="AI16" s="257"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="220"/>
-      <c r="O17" s="220"/>
-      <c r="P17" s="221"/>
-      <c r="Q17" s="222"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
-      <c r="X17" s="223"/>
-      <c r="Y17" s="223"/>
-      <c r="Z17" s="223"/>
-      <c r="AA17" s="223"/>
-      <c r="AB17" s="223"/>
-      <c r="AC17" s="223"/>
-      <c r="AD17" s="223"/>
-      <c r="AE17" s="224"/>
-      <c r="AF17" s="219"/>
-      <c r="AG17" s="220"/>
-      <c r="AH17" s="220"/>
-      <c r="AI17" s="221"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="253"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="255"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="256"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="257"/>
+      <c r="Q17" s="258"/>
+      <c r="R17" s="259"/>
+      <c r="S17" s="259"/>
+      <c r="T17" s="259"/>
+      <c r="U17" s="259"/>
+      <c r="V17" s="259"/>
+      <c r="W17" s="259"/>
+      <c r="X17" s="259"/>
+      <c r="Y17" s="259"/>
+      <c r="Z17" s="259"/>
+      <c r="AA17" s="259"/>
+      <c r="AB17" s="259"/>
+      <c r="AC17" s="259"/>
+      <c r="AD17" s="259"/>
+      <c r="AE17" s="260"/>
+      <c r="AF17" s="255"/>
+      <c r="AG17" s="256"/>
+      <c r="AH17" s="256"/>
+      <c r="AI17" s="257"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
-      <c r="O18" s="220"/>
-      <c r="P18" s="221"/>
-      <c r="Q18" s="222"/>
-      <c r="R18" s="223"/>
-      <c r="S18" s="223"/>
-      <c r="T18" s="223"/>
-      <c r="U18" s="223"/>
-      <c r="V18" s="223"/>
-      <c r="W18" s="223"/>
-      <c r="X18" s="223"/>
-      <c r="Y18" s="223"/>
-      <c r="Z18" s="223"/>
-      <c r="AA18" s="223"/>
-      <c r="AB18" s="223"/>
-      <c r="AC18" s="223"/>
-      <c r="AD18" s="223"/>
-      <c r="AE18" s="224"/>
-      <c r="AF18" s="219"/>
-      <c r="AG18" s="220"/>
-      <c r="AH18" s="220"/>
-      <c r="AI18" s="221"/>
+      <c r="B18" s="249"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="253"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="255"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="256"/>
+      <c r="M18" s="256"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="257"/>
+      <c r="Q18" s="258"/>
+      <c r="R18" s="259"/>
+      <c r="S18" s="259"/>
+      <c r="T18" s="259"/>
+      <c r="U18" s="259"/>
+      <c r="V18" s="259"/>
+      <c r="W18" s="259"/>
+      <c r="X18" s="259"/>
+      <c r="Y18" s="259"/>
+      <c r="Z18" s="259"/>
+      <c r="AA18" s="259"/>
+      <c r="AB18" s="259"/>
+      <c r="AC18" s="259"/>
+      <c r="AD18" s="259"/>
+      <c r="AE18" s="260"/>
+      <c r="AF18" s="255"/>
+      <c r="AG18" s="256"/>
+      <c r="AH18" s="256"/>
+      <c r="AI18" s="257"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
-      <c r="O19" s="220"/>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="222"/>
-      <c r="R19" s="223"/>
-      <c r="S19" s="223"/>
-      <c r="T19" s="223"/>
-      <c r="U19" s="223"/>
-      <c r="V19" s="223"/>
-      <c r="W19" s="223"/>
-      <c r="X19" s="223"/>
-      <c r="Y19" s="223"/>
-      <c r="Z19" s="223"/>
-      <c r="AA19" s="223"/>
-      <c r="AB19" s="223"/>
-      <c r="AC19" s="223"/>
-      <c r="AD19" s="223"/>
-      <c r="AE19" s="224"/>
-      <c r="AF19" s="219"/>
-      <c r="AG19" s="220"/>
-      <c r="AH19" s="220"/>
-      <c r="AI19" s="221"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="253"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="255"/>
+      <c r="K19" s="256"/>
+      <c r="L19" s="256"/>
+      <c r="M19" s="256"/>
+      <c r="N19" s="256"/>
+      <c r="O19" s="256"/>
+      <c r="P19" s="257"/>
+      <c r="Q19" s="258"/>
+      <c r="R19" s="259"/>
+      <c r="S19" s="259"/>
+      <c r="T19" s="259"/>
+      <c r="U19" s="259"/>
+      <c r="V19" s="259"/>
+      <c r="W19" s="259"/>
+      <c r="X19" s="259"/>
+      <c r="Y19" s="259"/>
+      <c r="Z19" s="259"/>
+      <c r="AA19" s="259"/>
+      <c r="AB19" s="259"/>
+      <c r="AC19" s="259"/>
+      <c r="AD19" s="259"/>
+      <c r="AE19" s="260"/>
+      <c r="AF19" s="255"/>
+      <c r="AG19" s="256"/>
+      <c r="AH19" s="256"/>
+      <c r="AI19" s="257"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="213"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="216"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="214"/>
-      <c r="J20" s="219"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="220"/>
-      <c r="P20" s="221"/>
-      <c r="Q20" s="222"/>
-      <c r="R20" s="223"/>
-      <c r="S20" s="223"/>
-      <c r="T20" s="223"/>
-      <c r="U20" s="223"/>
-      <c r="V20" s="223"/>
-      <c r="W20" s="223"/>
-      <c r="X20" s="223"/>
-      <c r="Y20" s="223"/>
-      <c r="Z20" s="223"/>
-      <c r="AA20" s="223"/>
-      <c r="AB20" s="223"/>
-      <c r="AC20" s="223"/>
-      <c r="AD20" s="223"/>
-      <c r="AE20" s="224"/>
-      <c r="AF20" s="219"/>
-      <c r="AG20" s="220"/>
-      <c r="AH20" s="220"/>
-      <c r="AI20" s="221"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="250"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="256"/>
+      <c r="L20" s="256"/>
+      <c r="M20" s="256"/>
+      <c r="N20" s="256"/>
+      <c r="O20" s="256"/>
+      <c r="P20" s="257"/>
+      <c r="Q20" s="258"/>
+      <c r="R20" s="259"/>
+      <c r="S20" s="259"/>
+      <c r="T20" s="259"/>
+      <c r="U20" s="259"/>
+      <c r="V20" s="259"/>
+      <c r="W20" s="259"/>
+      <c r="X20" s="259"/>
+      <c r="Y20" s="259"/>
+      <c r="Z20" s="259"/>
+      <c r="AA20" s="259"/>
+      <c r="AB20" s="259"/>
+      <c r="AC20" s="259"/>
+      <c r="AD20" s="259"/>
+      <c r="AE20" s="260"/>
+      <c r="AF20" s="255"/>
+      <c r="AG20" s="256"/>
+      <c r="AH20" s="256"/>
+      <c r="AI20" s="257"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="220"/>
-      <c r="O21" s="220"/>
-      <c r="P21" s="221"/>
-      <c r="Q21" s="222"/>
-      <c r="R21" s="223"/>
-      <c r="S21" s="223"/>
-      <c r="T21" s="223"/>
-      <c r="U21" s="223"/>
-      <c r="V21" s="223"/>
-      <c r="W21" s="223"/>
-      <c r="X21" s="223"/>
-      <c r="Y21" s="223"/>
-      <c r="Z21" s="223"/>
-      <c r="AA21" s="223"/>
-      <c r="AB21" s="223"/>
-      <c r="AC21" s="223"/>
-      <c r="AD21" s="223"/>
-      <c r="AE21" s="224"/>
-      <c r="AF21" s="219"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="220"/>
-      <c r="AI21" s="221"/>
+      <c r="B21" s="249"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="250"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="256"/>
+      <c r="L21" s="256"/>
+      <c r="M21" s="256"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="256"/>
+      <c r="P21" s="257"/>
+      <c r="Q21" s="258"/>
+      <c r="R21" s="259"/>
+      <c r="S21" s="259"/>
+      <c r="T21" s="259"/>
+      <c r="U21" s="259"/>
+      <c r="V21" s="259"/>
+      <c r="W21" s="259"/>
+      <c r="X21" s="259"/>
+      <c r="Y21" s="259"/>
+      <c r="Z21" s="259"/>
+      <c r="AA21" s="259"/>
+      <c r="AB21" s="259"/>
+      <c r="AC21" s="259"/>
+      <c r="AD21" s="259"/>
+      <c r="AE21" s="260"/>
+      <c r="AF21" s="255"/>
+      <c r="AG21" s="256"/>
+      <c r="AH21" s="256"/>
+      <c r="AI21" s="257"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="214"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="217"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="220"/>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
-      <c r="O22" s="220"/>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="222"/>
-      <c r="R22" s="223"/>
-      <c r="S22" s="223"/>
-      <c r="T22" s="223"/>
-      <c r="U22" s="223"/>
-      <c r="V22" s="223"/>
-      <c r="W22" s="223"/>
-      <c r="X22" s="223"/>
-      <c r="Y22" s="223"/>
-      <c r="Z22" s="223"/>
-      <c r="AA22" s="223"/>
-      <c r="AB22" s="223"/>
-      <c r="AC22" s="223"/>
-      <c r="AD22" s="223"/>
-      <c r="AE22" s="224"/>
-      <c r="AF22" s="219"/>
-      <c r="AG22" s="220"/>
-      <c r="AH22" s="220"/>
-      <c r="AI22" s="221"/>
+      <c r="B22" s="249"/>
+      <c r="C22" s="250"/>
+      <c r="D22" s="251"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="250"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="256"/>
+      <c r="M22" s="256"/>
+      <c r="N22" s="256"/>
+      <c r="O22" s="256"/>
+      <c r="P22" s="257"/>
+      <c r="Q22" s="258"/>
+      <c r="R22" s="259"/>
+      <c r="S22" s="259"/>
+      <c r="T22" s="259"/>
+      <c r="U22" s="259"/>
+      <c r="V22" s="259"/>
+      <c r="W22" s="259"/>
+      <c r="X22" s="259"/>
+      <c r="Y22" s="259"/>
+      <c r="Z22" s="259"/>
+      <c r="AA22" s="259"/>
+      <c r="AB22" s="259"/>
+      <c r="AC22" s="259"/>
+      <c r="AD22" s="259"/>
+      <c r="AE22" s="260"/>
+      <c r="AF22" s="255"/>
+      <c r="AG22" s="256"/>
+      <c r="AH22" s="256"/>
+      <c r="AI22" s="257"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="220"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="220"/>
-      <c r="O23" s="220"/>
-      <c r="P23" s="221"/>
-      <c r="Q23" s="222"/>
-      <c r="R23" s="223"/>
-      <c r="S23" s="223"/>
-      <c r="T23" s="223"/>
-      <c r="U23" s="223"/>
-      <c r="V23" s="223"/>
-      <c r="W23" s="223"/>
-      <c r="X23" s="223"/>
-      <c r="Y23" s="223"/>
-      <c r="Z23" s="223"/>
-      <c r="AA23" s="223"/>
-      <c r="AB23" s="223"/>
-      <c r="AC23" s="223"/>
-      <c r="AD23" s="223"/>
-      <c r="AE23" s="224"/>
-      <c r="AF23" s="219"/>
-      <c r="AG23" s="220"/>
-      <c r="AH23" s="220"/>
-      <c r="AI23" s="221"/>
+      <c r="B23" s="249"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="256"/>
+      <c r="M23" s="256"/>
+      <c r="N23" s="256"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="257"/>
+      <c r="Q23" s="258"/>
+      <c r="R23" s="259"/>
+      <c r="S23" s="259"/>
+      <c r="T23" s="259"/>
+      <c r="U23" s="259"/>
+      <c r="V23" s="259"/>
+      <c r="W23" s="259"/>
+      <c r="X23" s="259"/>
+      <c r="Y23" s="259"/>
+      <c r="Z23" s="259"/>
+      <c r="AA23" s="259"/>
+      <c r="AB23" s="259"/>
+      <c r="AC23" s="259"/>
+      <c r="AD23" s="259"/>
+      <c r="AE23" s="260"/>
+      <c r="AF23" s="255"/>
+      <c r="AG23" s="256"/>
+      <c r="AH23" s="256"/>
+      <c r="AI23" s="257"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="220"/>
-      <c r="M24" s="220"/>
-      <c r="N24" s="220"/>
-      <c r="O24" s="220"/>
-      <c r="P24" s="221"/>
-      <c r="Q24" s="222"/>
-      <c r="R24" s="223"/>
-      <c r="S24" s="223"/>
-      <c r="T24" s="223"/>
-      <c r="U24" s="223"/>
-      <c r="V24" s="223"/>
-      <c r="W24" s="223"/>
-      <c r="X24" s="223"/>
-      <c r="Y24" s="223"/>
-      <c r="Z24" s="223"/>
-      <c r="AA24" s="223"/>
-      <c r="AB24" s="223"/>
-      <c r="AC24" s="223"/>
-      <c r="AD24" s="223"/>
-      <c r="AE24" s="224"/>
-      <c r="AF24" s="219"/>
-      <c r="AG24" s="220"/>
-      <c r="AH24" s="220"/>
-      <c r="AI24" s="221"/>
+      <c r="B24" s="249"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="252"/>
+      <c r="F24" s="253"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="255"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="256"/>
+      <c r="M24" s="256"/>
+      <c r="N24" s="256"/>
+      <c r="O24" s="256"/>
+      <c r="P24" s="257"/>
+      <c r="Q24" s="258"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="259"/>
+      <c r="T24" s="259"/>
+      <c r="U24" s="259"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="259"/>
+      <c r="X24" s="259"/>
+      <c r="Y24" s="259"/>
+      <c r="Z24" s="259"/>
+      <c r="AA24" s="259"/>
+      <c r="AB24" s="259"/>
+      <c r="AC24" s="259"/>
+      <c r="AD24" s="259"/>
+      <c r="AE24" s="260"/>
+      <c r="AF24" s="255"/>
+      <c r="AG24" s="256"/>
+      <c r="AH24" s="256"/>
+      <c r="AI24" s="257"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="217"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="222"/>
-      <c r="R25" s="223"/>
-      <c r="S25" s="223"/>
-      <c r="T25" s="223"/>
-      <c r="U25" s="223"/>
-      <c r="V25" s="223"/>
-      <c r="W25" s="223"/>
-      <c r="X25" s="223"/>
-      <c r="Y25" s="223"/>
-      <c r="Z25" s="223"/>
-      <c r="AA25" s="223"/>
-      <c r="AB25" s="223"/>
-      <c r="AC25" s="223"/>
-      <c r="AD25" s="223"/>
-      <c r="AE25" s="224"/>
-      <c r="AF25" s="219"/>
-      <c r="AG25" s="220"/>
-      <c r="AH25" s="220"/>
-      <c r="AI25" s="221"/>
+      <c r="B25" s="249"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="256"/>
+      <c r="L25" s="256"/>
+      <c r="M25" s="256"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="256"/>
+      <c r="P25" s="257"/>
+      <c r="Q25" s="258"/>
+      <c r="R25" s="259"/>
+      <c r="S25" s="259"/>
+      <c r="T25" s="259"/>
+      <c r="U25" s="259"/>
+      <c r="V25" s="259"/>
+      <c r="W25" s="259"/>
+      <c r="X25" s="259"/>
+      <c r="Y25" s="259"/>
+      <c r="Z25" s="259"/>
+      <c r="AA25" s="259"/>
+      <c r="AB25" s="259"/>
+      <c r="AC25" s="259"/>
+      <c r="AD25" s="259"/>
+      <c r="AE25" s="260"/>
+      <c r="AF25" s="255"/>
+      <c r="AG25" s="256"/>
+      <c r="AH25" s="256"/>
+      <c r="AI25" s="257"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="213"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="220"/>
-      <c r="M26" s="220"/>
-      <c r="N26" s="220"/>
-      <c r="O26" s="220"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="222"/>
-      <c r="R26" s="223"/>
-      <c r="S26" s="223"/>
-      <c r="T26" s="223"/>
-      <c r="U26" s="223"/>
-      <c r="V26" s="223"/>
-      <c r="W26" s="223"/>
-      <c r="X26" s="223"/>
-      <c r="Y26" s="223"/>
-      <c r="Z26" s="223"/>
-      <c r="AA26" s="223"/>
-      <c r="AB26" s="223"/>
-      <c r="AC26" s="223"/>
-      <c r="AD26" s="223"/>
-      <c r="AE26" s="224"/>
-      <c r="AF26" s="219"/>
-      <c r="AG26" s="220"/>
-      <c r="AH26" s="220"/>
-      <c r="AI26" s="221"/>
+      <c r="B26" s="249"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="252"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="256"/>
+      <c r="L26" s="256"/>
+      <c r="M26" s="256"/>
+      <c r="N26" s="256"/>
+      <c r="O26" s="256"/>
+      <c r="P26" s="257"/>
+      <c r="Q26" s="258"/>
+      <c r="R26" s="259"/>
+      <c r="S26" s="259"/>
+      <c r="T26" s="259"/>
+      <c r="U26" s="259"/>
+      <c r="V26" s="259"/>
+      <c r="W26" s="259"/>
+      <c r="X26" s="259"/>
+      <c r="Y26" s="259"/>
+      <c r="Z26" s="259"/>
+      <c r="AA26" s="259"/>
+      <c r="AB26" s="259"/>
+      <c r="AC26" s="259"/>
+      <c r="AD26" s="259"/>
+      <c r="AE26" s="260"/>
+      <c r="AF26" s="255"/>
+      <c r="AG26" s="256"/>
+      <c r="AH26" s="256"/>
+      <c r="AI26" s="257"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="213"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="220"/>
-      <c r="N27" s="220"/>
-      <c r="O27" s="220"/>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="222"/>
-      <c r="R27" s="223"/>
-      <c r="S27" s="223"/>
-      <c r="T27" s="223"/>
-      <c r="U27" s="223"/>
-      <c r="V27" s="223"/>
-      <c r="W27" s="223"/>
-      <c r="X27" s="223"/>
-      <c r="Y27" s="223"/>
-      <c r="Z27" s="223"/>
-      <c r="AA27" s="223"/>
-      <c r="AB27" s="223"/>
-      <c r="AC27" s="223"/>
-      <c r="AD27" s="223"/>
-      <c r="AE27" s="224"/>
-      <c r="AF27" s="219"/>
-      <c r="AG27" s="220"/>
-      <c r="AH27" s="220"/>
-      <c r="AI27" s="221"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="250"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="256"/>
+      <c r="L27" s="256"/>
+      <c r="M27" s="256"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="257"/>
+      <c r="Q27" s="258"/>
+      <c r="R27" s="259"/>
+      <c r="S27" s="259"/>
+      <c r="T27" s="259"/>
+      <c r="U27" s="259"/>
+      <c r="V27" s="259"/>
+      <c r="W27" s="259"/>
+      <c r="X27" s="259"/>
+      <c r="Y27" s="259"/>
+      <c r="Z27" s="259"/>
+      <c r="AA27" s="259"/>
+      <c r="AB27" s="259"/>
+      <c r="AC27" s="259"/>
+      <c r="AD27" s="259"/>
+      <c r="AE27" s="260"/>
+      <c r="AF27" s="255"/>
+      <c r="AG27" s="256"/>
+      <c r="AH27" s="256"/>
+      <c r="AI27" s="257"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="213"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="218"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="220"/>
-      <c r="L28" s="220"/>
-      <c r="M28" s="220"/>
-      <c r="N28" s="220"/>
-      <c r="O28" s="220"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="222"/>
-      <c r="R28" s="223"/>
-      <c r="S28" s="223"/>
-      <c r="T28" s="223"/>
-      <c r="U28" s="223"/>
-      <c r="V28" s="223"/>
-      <c r="W28" s="223"/>
-      <c r="X28" s="223"/>
-      <c r="Y28" s="223"/>
-      <c r="Z28" s="223"/>
-      <c r="AA28" s="223"/>
-      <c r="AB28" s="223"/>
-      <c r="AC28" s="223"/>
-      <c r="AD28" s="223"/>
-      <c r="AE28" s="224"/>
-      <c r="AF28" s="219"/>
-      <c r="AG28" s="220"/>
-      <c r="AH28" s="220"/>
-      <c r="AI28" s="221"/>
+      <c r="B28" s="249"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="253"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="255"/>
+      <c r="K28" s="256"/>
+      <c r="L28" s="256"/>
+      <c r="M28" s="256"/>
+      <c r="N28" s="256"/>
+      <c r="O28" s="256"/>
+      <c r="P28" s="257"/>
+      <c r="Q28" s="258"/>
+      <c r="R28" s="259"/>
+      <c r="S28" s="259"/>
+      <c r="T28" s="259"/>
+      <c r="U28" s="259"/>
+      <c r="V28" s="259"/>
+      <c r="W28" s="259"/>
+      <c r="X28" s="259"/>
+      <c r="Y28" s="259"/>
+      <c r="Z28" s="259"/>
+      <c r="AA28" s="259"/>
+      <c r="AB28" s="259"/>
+      <c r="AC28" s="259"/>
+      <c r="AD28" s="259"/>
+      <c r="AE28" s="260"/>
+      <c r="AF28" s="255"/>
+      <c r="AG28" s="256"/>
+      <c r="AH28" s="256"/>
+      <c r="AI28" s="257"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="213"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="220"/>
-      <c r="L29" s="220"/>
-      <c r="M29" s="220"/>
-      <c r="N29" s="220"/>
-      <c r="O29" s="220"/>
-      <c r="P29" s="221"/>
-      <c r="Q29" s="222"/>
-      <c r="R29" s="223"/>
-      <c r="S29" s="223"/>
-      <c r="T29" s="223"/>
-      <c r="U29" s="223"/>
-      <c r="V29" s="223"/>
-      <c r="W29" s="223"/>
-      <c r="X29" s="223"/>
-      <c r="Y29" s="223"/>
-      <c r="Z29" s="223"/>
-      <c r="AA29" s="223"/>
-      <c r="AB29" s="223"/>
-      <c r="AC29" s="223"/>
-      <c r="AD29" s="223"/>
-      <c r="AE29" s="224"/>
-      <c r="AF29" s="219"/>
-      <c r="AG29" s="220"/>
-      <c r="AH29" s="220"/>
-      <c r="AI29" s="221"/>
+      <c r="B29" s="249"/>
+      <c r="C29" s="250"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="253"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="254"/>
+      <c r="I29" s="250"/>
+      <c r="J29" s="255"/>
+      <c r="K29" s="256"/>
+      <c r="L29" s="256"/>
+      <c r="M29" s="256"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="256"/>
+      <c r="P29" s="257"/>
+      <c r="Q29" s="258"/>
+      <c r="R29" s="259"/>
+      <c r="S29" s="259"/>
+      <c r="T29" s="259"/>
+      <c r="U29" s="259"/>
+      <c r="V29" s="259"/>
+      <c r="W29" s="259"/>
+      <c r="X29" s="259"/>
+      <c r="Y29" s="259"/>
+      <c r="Z29" s="259"/>
+      <c r="AA29" s="259"/>
+      <c r="AB29" s="259"/>
+      <c r="AC29" s="259"/>
+      <c r="AD29" s="259"/>
+      <c r="AE29" s="260"/>
+      <c r="AF29" s="255"/>
+      <c r="AG29" s="256"/>
+      <c r="AH29" s="256"/>
+      <c r="AI29" s="257"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="213"/>
-      <c r="C30" s="214"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="220"/>
-      <c r="P30" s="221"/>
-      <c r="Q30" s="222"/>
-      <c r="R30" s="223"/>
-      <c r="S30" s="223"/>
-      <c r="T30" s="223"/>
-      <c r="U30" s="223"/>
-      <c r="V30" s="223"/>
-      <c r="W30" s="223"/>
-      <c r="X30" s="223"/>
-      <c r="Y30" s="223"/>
-      <c r="Z30" s="223"/>
-      <c r="AA30" s="223"/>
-      <c r="AB30" s="223"/>
-      <c r="AC30" s="223"/>
-      <c r="AD30" s="223"/>
-      <c r="AE30" s="224"/>
-      <c r="AF30" s="219"/>
-      <c r="AG30" s="220"/>
-      <c r="AH30" s="220"/>
-      <c r="AI30" s="221"/>
+      <c r="B30" s="249"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="253"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="250"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="256"/>
+      <c r="L30" s="256"/>
+      <c r="M30" s="256"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="256"/>
+      <c r="P30" s="257"/>
+      <c r="Q30" s="258"/>
+      <c r="R30" s="259"/>
+      <c r="S30" s="259"/>
+      <c r="T30" s="259"/>
+      <c r="U30" s="259"/>
+      <c r="V30" s="259"/>
+      <c r="W30" s="259"/>
+      <c r="X30" s="259"/>
+      <c r="Y30" s="259"/>
+      <c r="Z30" s="259"/>
+      <c r="AA30" s="259"/>
+      <c r="AB30" s="259"/>
+      <c r="AC30" s="259"/>
+      <c r="AD30" s="259"/>
+      <c r="AE30" s="260"/>
+      <c r="AF30" s="255"/>
+      <c r="AG30" s="256"/>
+      <c r="AH30" s="256"/>
+      <c r="AI30" s="257"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="213"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="220"/>
-      <c r="N31" s="220"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="221"/>
-      <c r="Q31" s="222"/>
-      <c r="R31" s="223"/>
-      <c r="S31" s="223"/>
-      <c r="T31" s="223"/>
-      <c r="U31" s="223"/>
-      <c r="V31" s="223"/>
-      <c r="W31" s="223"/>
-      <c r="X31" s="223"/>
-      <c r="Y31" s="223"/>
-      <c r="Z31" s="223"/>
-      <c r="AA31" s="223"/>
-      <c r="AB31" s="223"/>
-      <c r="AC31" s="223"/>
-      <c r="AD31" s="223"/>
-      <c r="AE31" s="224"/>
-      <c r="AF31" s="219"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="220"/>
-      <c r="AI31" s="221"/>
+      <c r="B31" s="249"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="253"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="254"/>
+      <c r="I31" s="250"/>
+      <c r="J31" s="255"/>
+      <c r="K31" s="256"/>
+      <c r="L31" s="256"/>
+      <c r="M31" s="256"/>
+      <c r="N31" s="256"/>
+      <c r="O31" s="256"/>
+      <c r="P31" s="257"/>
+      <c r="Q31" s="258"/>
+      <c r="R31" s="259"/>
+      <c r="S31" s="259"/>
+      <c r="T31" s="259"/>
+      <c r="U31" s="259"/>
+      <c r="V31" s="259"/>
+      <c r="W31" s="259"/>
+      <c r="X31" s="259"/>
+      <c r="Y31" s="259"/>
+      <c r="Z31" s="259"/>
+      <c r="AA31" s="259"/>
+      <c r="AB31" s="259"/>
+      <c r="AC31" s="259"/>
+      <c r="AD31" s="259"/>
+      <c r="AE31" s="260"/>
+      <c r="AF31" s="255"/>
+      <c r="AG31" s="256"/>
+      <c r="AH31" s="256"/>
+      <c r="AI31" s="257"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="213"/>
-      <c r="C32" s="214"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="225"/>
-      <c r="L32" s="220"/>
-      <c r="M32" s="220"/>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="222"/>
-      <c r="R32" s="223"/>
-      <c r="S32" s="223"/>
-      <c r="T32" s="223"/>
-      <c r="U32" s="223"/>
-      <c r="V32" s="223"/>
-      <c r="W32" s="223"/>
-      <c r="X32" s="223"/>
-      <c r="Y32" s="223"/>
-      <c r="Z32" s="223"/>
-      <c r="AA32" s="223"/>
-      <c r="AB32" s="223"/>
-      <c r="AC32" s="223"/>
-      <c r="AD32" s="223"/>
-      <c r="AE32" s="224"/>
-      <c r="AF32" s="219"/>
-      <c r="AG32" s="220"/>
-      <c r="AH32" s="220"/>
-      <c r="AI32" s="221"/>
+      <c r="B32" s="249"/>
+      <c r="C32" s="250"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="253"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="254"/>
+      <c r="I32" s="250"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="270"/>
+      <c r="L32" s="256"/>
+      <c r="M32" s="256"/>
+      <c r="N32" s="256"/>
+      <c r="O32" s="256"/>
+      <c r="P32" s="257"/>
+      <c r="Q32" s="258"/>
+      <c r="R32" s="259"/>
+      <c r="S32" s="259"/>
+      <c r="T32" s="259"/>
+      <c r="U32" s="259"/>
+      <c r="V32" s="259"/>
+      <c r="W32" s="259"/>
+      <c r="X32" s="259"/>
+      <c r="Y32" s="259"/>
+      <c r="Z32" s="259"/>
+      <c r="AA32" s="259"/>
+      <c r="AB32" s="259"/>
+      <c r="AC32" s="259"/>
+      <c r="AD32" s="259"/>
+      <c r="AE32" s="260"/>
+      <c r="AF32" s="255"/>
+      <c r="AG32" s="256"/>
+      <c r="AH32" s="256"/>
+      <c r="AI32" s="257"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="214"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="220"/>
-      <c r="N33" s="220"/>
-      <c r="O33" s="220"/>
-      <c r="P33" s="221"/>
-      <c r="Q33" s="222"/>
-      <c r="R33" s="223"/>
-      <c r="S33" s="223"/>
-      <c r="T33" s="223"/>
-      <c r="U33" s="223"/>
-      <c r="V33" s="223"/>
-      <c r="W33" s="223"/>
-      <c r="X33" s="223"/>
-      <c r="Y33" s="223"/>
-      <c r="Z33" s="223"/>
-      <c r="AA33" s="223"/>
-      <c r="AB33" s="223"/>
-      <c r="AC33" s="223"/>
-      <c r="AD33" s="223"/>
-      <c r="AE33" s="224"/>
-      <c r="AF33" s="219"/>
-      <c r="AG33" s="220"/>
-      <c r="AH33" s="220"/>
-      <c r="AI33" s="221"/>
+      <c r="B33" s="249"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="251"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="250"/>
+      <c r="J33" s="255"/>
+      <c r="K33" s="256"/>
+      <c r="L33" s="256"/>
+      <c r="M33" s="256"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="256"/>
+      <c r="P33" s="257"/>
+      <c r="Q33" s="258"/>
+      <c r="R33" s="259"/>
+      <c r="S33" s="259"/>
+      <c r="T33" s="259"/>
+      <c r="U33" s="259"/>
+      <c r="V33" s="259"/>
+      <c r="W33" s="259"/>
+      <c r="X33" s="259"/>
+      <c r="Y33" s="259"/>
+      <c r="Z33" s="259"/>
+      <c r="AA33" s="259"/>
+      <c r="AB33" s="259"/>
+      <c r="AC33" s="259"/>
+      <c r="AD33" s="259"/>
+      <c r="AE33" s="260"/>
+      <c r="AF33" s="255"/>
+      <c r="AG33" s="256"/>
+      <c r="AH33" s="256"/>
+      <c r="AI33" s="257"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -9152,161 +9115,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -9464,54 +9272,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="259" t="str">
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(リクエスト・取引単体（メッセージ）)
 サンプル取引/RMXXXXXXXX</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="241" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="219" t="s">
         <v>199</v>
       </c>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="268" t="str">
+      <c r="AB1" s="221"/>
+      <c r="AC1" s="246" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="269"/>
-      <c r="AF1" s="270"/>
+      <c r="AD1" s="247"/>
+      <c r="AE1" s="247"/>
+      <c r="AF1" s="248"/>
       <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -9523,48 +9331,48 @@
       <c r="AL1" s="12"/>
     </row>
     <row r="2" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="219" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="241" t="s">
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="AB2" s="243"/>
-      <c r="AC2" s="268" t="str">
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="246" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="269"/>
-      <c r="AE2" s="269"/>
-      <c r="AF2" s="270"/>
+      <c r="AD2" s="247"/>
+      <c r="AE2" s="247"/>
+      <c r="AF2" s="248"/>
       <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -9576,46 +9384,46 @@
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="219" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="243"/>
-      <c r="AC3" s="268" t="str">
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="246" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="269"/>
-      <c r="AE3" s="269"/>
-      <c r="AF3" s="270"/>
+      <c r="AD3" s="247"/>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="248"/>
       <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -11090,14 +10898,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -11107,6 +10907,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(メッセージ)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(メッセージ)_サンプル.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
   <si>
     <t>システム機能設計書</t>
     <rPh sb="4" eb="6">
@@ -1144,25 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・外部インターフェース設計書通りのレコード構成で出力される。</t>
-    <rPh sb="1" eb="3">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-5-2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1297,44 +1278,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・外部インターフェース設計書のフォーマット仕様通りの編集仕様で出力される。
-・外部インターフェース設計書通りのパディング文字、パディング位置で出力される。</t>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2243,29 +2186,6 @@
 (b)レコード構成</t>
   </si>
   <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-  </si>
-  <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="45" eb="50">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>(a)作成条件
 (b)作成条件
 (c)処理詳細、イベント詳細</t>
@@ -2337,9 +2257,95 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
 (c)システム機能設計書</t>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・外部インタフェース設計書通りのレコード構成で出力される。</t>
+    <rPh sb="1" eb="3">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・外部インタフェース設計書のフォーマット仕様通りの編集仕様で出力される。
+・外部インタフェース設計書通りのパディング文字、パディング位置で出力される。</t>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3621,6 +3627,72 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -3727,72 +3799,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7149,7 +7155,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -7722,57 +7728,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="241" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="244" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="250" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="259" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
+      <c r="X1" s="260"/>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="261"/>
+      <c r="AA1" s="241" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="222" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="228" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="237" t="s">
-        <v>219</v>
-      </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="219" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="246" t="str">
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="268" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="247"/>
-      <c r="AE1" s="247"/>
-      <c r="AF1" s="248"/>
-      <c r="AG1" s="213">
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="235">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="215"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="237"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7780,53 +7786,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="219" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="222" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="241"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="219" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="225" t="str">
+      <c r="A2" s="241" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="244" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="263"/>
+      <c r="U2" s="263"/>
+      <c r="V2" s="263"/>
+      <c r="W2" s="263"/>
+      <c r="X2" s="263"/>
+      <c r="Y2" s="263"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="241" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB2" s="243"/>
+      <c r="AC2" s="247" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="226"/>
-      <c r="AE2" s="226"/>
-      <c r="AF2" s="227"/>
-      <c r="AG2" s="213" t="str">
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="235" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="215"/>
+      <c r="AH2" s="236"/>
+      <c r="AI2" s="237"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7834,45 +7840,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="219" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="236"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="246"/>
-      <c r="AD3" s="247"/>
-      <c r="AE3" s="247"/>
-      <c r="AF3" s="248"/>
-      <c r="AG3" s="213"/>
-      <c r="AH3" s="214"/>
-      <c r="AI3" s="215"/>
+      <c r="A3" s="241" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="244" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="266"/>
+      <c r="W3" s="266"/>
+      <c r="X3" s="266"/>
+      <c r="Y3" s="266"/>
+      <c r="Z3" s="267"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="243"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="269"/>
+      <c r="AE3" s="269"/>
+      <c r="AF3" s="270"/>
+      <c r="AG3" s="235"/>
+      <c r="AH3" s="236"/>
+      <c r="AI3" s="237"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7881,7 +7887,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -7907,101 +7913,101 @@
     </row>
     <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="238" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="239"/>
+      <c r="D7" s="238" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="E7" s="240"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="238" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="240"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="238" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="216" t="s">
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="240"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="238" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="218"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="216" t="s">
+      <c r="R7" s="240"/>
+      <c r="S7" s="240"/>
+      <c r="T7" s="240"/>
+      <c r="U7" s="240"/>
+      <c r="V7" s="240"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="240"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="240"/>
+      <c r="AA7" s="240"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="240"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="239"/>
+      <c r="AF7" s="238" t="s">
         <v>207</v>
       </c>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="216" t="s">
-        <v>208</v>
-      </c>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="218"/>
-      <c r="AE7" s="217"/>
-      <c r="AF7" s="216" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG7" s="218"/>
-      <c r="AH7" s="218"/>
-      <c r="AI7" s="217"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="239"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="261" t="s">
+      <c r="B8" s="226" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="227"/>
+      <c r="D8" s="228">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="229"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="226" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="231"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="232" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="263">
-        <v>43336</v>
-      </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="261" t="s">
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="233"/>
+      <c r="O8" s="233"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="232" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="266"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="267" t="s">
+      <c r="R8" s="233"/>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="233"/>
+      <c r="W8" s="233"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="233"/>
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="234"/>
+      <c r="AF8" s="69" t="s">
         <v>223</v>
-      </c>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="268"/>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="267" t="s">
-        <v>224</v>
-      </c>
-      <c r="R8" s="268"/>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="69" t="s">
-        <v>225</v>
       </c>
       <c r="AG8" s="70"/>
       <c r="AH8" s="70"/>
@@ -8009,1089 +8015,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="256"/>
-      <c r="M9" s="256"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="256"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="259"/>
-      <c r="S9" s="259"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="259"/>
-      <c r="V9" s="259"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="259"/>
-      <c r="Y9" s="259"/>
-      <c r="Z9" s="259"/>
-      <c r="AA9" s="259"/>
-      <c r="AB9" s="259"/>
-      <c r="AC9" s="259"/>
-      <c r="AD9" s="259"/>
-      <c r="AE9" s="260"/>
-      <c r="AF9" s="255"/>
-      <c r="AG9" s="256"/>
-      <c r="AH9" s="256"/>
-      <c r="AI9" s="257"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="222"/>
+      <c r="R9" s="223"/>
+      <c r="S9" s="223"/>
+      <c r="T9" s="223"/>
+      <c r="U9" s="223"/>
+      <c r="V9" s="223"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="223"/>
+      <c r="Z9" s="223"/>
+      <c r="AA9" s="223"/>
+      <c r="AB9" s="223"/>
+      <c r="AC9" s="223"/>
+      <c r="AD9" s="223"/>
+      <c r="AE9" s="224"/>
+      <c r="AF9" s="219"/>
+      <c r="AG9" s="220"/>
+      <c r="AH9" s="220"/>
+      <c r="AI9" s="221"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="250"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="253"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="255"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="256"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="256"/>
-      <c r="O10" s="256"/>
-      <c r="P10" s="257"/>
-      <c r="Q10" s="258"/>
-      <c r="R10" s="259"/>
-      <c r="S10" s="259"/>
-      <c r="T10" s="259"/>
-      <c r="U10" s="259"/>
-      <c r="V10" s="259"/>
-      <c r="W10" s="259"/>
-      <c r="X10" s="259"/>
-      <c r="Y10" s="259"/>
-      <c r="Z10" s="259"/>
-      <c r="AA10" s="259"/>
-      <c r="AB10" s="259"/>
-      <c r="AC10" s="259"/>
-      <c r="AD10" s="259"/>
-      <c r="AE10" s="260"/>
-      <c r="AF10" s="255"/>
-      <c r="AG10" s="256"/>
-      <c r="AH10" s="256"/>
-      <c r="AI10" s="257"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="221"/>
+      <c r="Q10" s="222"/>
+      <c r="R10" s="223"/>
+      <c r="S10" s="223"/>
+      <c r="T10" s="223"/>
+      <c r="U10" s="223"/>
+      <c r="V10" s="223"/>
+      <c r="W10" s="223"/>
+      <c r="X10" s="223"/>
+      <c r="Y10" s="223"/>
+      <c r="Z10" s="223"/>
+      <c r="AA10" s="223"/>
+      <c r="AB10" s="223"/>
+      <c r="AC10" s="223"/>
+      <c r="AD10" s="223"/>
+      <c r="AE10" s="224"/>
+      <c r="AF10" s="219"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="220"/>
+      <c r="AI10" s="221"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="255"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="256"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="256"/>
-      <c r="O11" s="256"/>
-      <c r="P11" s="257"/>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="259"/>
-      <c r="S11" s="259"/>
-      <c r="T11" s="259"/>
-      <c r="U11" s="259"/>
-      <c r="V11" s="259"/>
-      <c r="W11" s="259"/>
-      <c r="X11" s="259"/>
-      <c r="Y11" s="259"/>
-      <c r="Z11" s="259"/>
-      <c r="AA11" s="259"/>
-      <c r="AB11" s="259"/>
-      <c r="AC11" s="259"/>
-      <c r="AD11" s="259"/>
-      <c r="AE11" s="260"/>
-      <c r="AF11" s="255"/>
-      <c r="AG11" s="256"/>
-      <c r="AH11" s="256"/>
-      <c r="AI11" s="257"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="221"/>
+      <c r="Q11" s="222"/>
+      <c r="R11" s="223"/>
+      <c r="S11" s="223"/>
+      <c r="T11" s="223"/>
+      <c r="U11" s="223"/>
+      <c r="V11" s="223"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="223"/>
+      <c r="Y11" s="223"/>
+      <c r="Z11" s="223"/>
+      <c r="AA11" s="223"/>
+      <c r="AB11" s="223"/>
+      <c r="AC11" s="223"/>
+      <c r="AD11" s="223"/>
+      <c r="AE11" s="224"/>
+      <c r="AF11" s="219"/>
+      <c r="AG11" s="220"/>
+      <c r="AH11" s="220"/>
+      <c r="AI11" s="221"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="250"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="253"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="250"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="256"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
-      <c r="P12" s="257"/>
-      <c r="Q12" s="258"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="259"/>
-      <c r="U12" s="259"/>
-      <c r="V12" s="259"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="259"/>
-      <c r="Y12" s="259"/>
-      <c r="Z12" s="259"/>
-      <c r="AA12" s="259"/>
-      <c r="AB12" s="259"/>
-      <c r="AC12" s="259"/>
-      <c r="AD12" s="259"/>
-      <c r="AE12" s="260"/>
-      <c r="AF12" s="255"/>
-      <c r="AG12" s="256"/>
-      <c r="AH12" s="256"/>
-      <c r="AI12" s="257"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="214"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="220"/>
+      <c r="P12" s="221"/>
+      <c r="Q12" s="222"/>
+      <c r="R12" s="223"/>
+      <c r="S12" s="223"/>
+      <c r="T12" s="223"/>
+      <c r="U12" s="223"/>
+      <c r="V12" s="223"/>
+      <c r="W12" s="223"/>
+      <c r="X12" s="223"/>
+      <c r="Y12" s="223"/>
+      <c r="Z12" s="223"/>
+      <c r="AA12" s="223"/>
+      <c r="AB12" s="223"/>
+      <c r="AC12" s="223"/>
+      <c r="AD12" s="223"/>
+      <c r="AE12" s="224"/>
+      <c r="AF12" s="219"/>
+      <c r="AG12" s="220"/>
+      <c r="AH12" s="220"/>
+      <c r="AI12" s="221"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="250"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="250"/>
-      <c r="J13" s="255"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="256"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
-      <c r="P13" s="257"/>
-      <c r="Q13" s="258"/>
-      <c r="R13" s="259"/>
-      <c r="S13" s="259"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="259"/>
-      <c r="V13" s="259"/>
-      <c r="W13" s="259"/>
-      <c r="X13" s="259"/>
-      <c r="Y13" s="259"/>
-      <c r="Z13" s="259"/>
-      <c r="AA13" s="259"/>
-      <c r="AB13" s="259"/>
-      <c r="AC13" s="259"/>
-      <c r="AD13" s="259"/>
-      <c r="AE13" s="260"/>
-      <c r="AF13" s="255"/>
-      <c r="AG13" s="256"/>
-      <c r="AH13" s="256"/>
-      <c r="AI13" s="257"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="221"/>
+      <c r="Q13" s="222"/>
+      <c r="R13" s="223"/>
+      <c r="S13" s="223"/>
+      <c r="T13" s="223"/>
+      <c r="U13" s="223"/>
+      <c r="V13" s="223"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="223"/>
+      <c r="Y13" s="223"/>
+      <c r="Z13" s="223"/>
+      <c r="AA13" s="223"/>
+      <c r="AB13" s="223"/>
+      <c r="AC13" s="223"/>
+      <c r="AD13" s="223"/>
+      <c r="AE13" s="224"/>
+      <c r="AF13" s="219"/>
+      <c r="AG13" s="220"/>
+      <c r="AH13" s="220"/>
+      <c r="AI13" s="221"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="249"/>
-      <c r="C14" s="250"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="255"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="257"/>
-      <c r="Q14" s="258"/>
-      <c r="R14" s="259"/>
-      <c r="S14" s="259"/>
-      <c r="T14" s="259"/>
-      <c r="U14" s="259"/>
-      <c r="V14" s="259"/>
-      <c r="W14" s="259"/>
-      <c r="X14" s="259"/>
-      <c r="Y14" s="259"/>
-      <c r="Z14" s="259"/>
-      <c r="AA14" s="259"/>
-      <c r="AB14" s="259"/>
-      <c r="AC14" s="259"/>
-      <c r="AD14" s="259"/>
-      <c r="AE14" s="260"/>
-      <c r="AF14" s="255"/>
-      <c r="AG14" s="256"/>
-      <c r="AH14" s="256"/>
-      <c r="AI14" s="257"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="220"/>
+      <c r="O14" s="220"/>
+      <c r="P14" s="221"/>
+      <c r="Q14" s="222"/>
+      <c r="R14" s="223"/>
+      <c r="S14" s="223"/>
+      <c r="T14" s="223"/>
+      <c r="U14" s="223"/>
+      <c r="V14" s="223"/>
+      <c r="W14" s="223"/>
+      <c r="X14" s="223"/>
+      <c r="Y14" s="223"/>
+      <c r="Z14" s="223"/>
+      <c r="AA14" s="223"/>
+      <c r="AB14" s="223"/>
+      <c r="AC14" s="223"/>
+      <c r="AD14" s="223"/>
+      <c r="AE14" s="224"/>
+      <c r="AF14" s="219"/>
+      <c r="AG14" s="220"/>
+      <c r="AH14" s="220"/>
+      <c r="AI14" s="221"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="250"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="252"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="250"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="257"/>
-      <c r="Q15" s="258"/>
-      <c r="R15" s="259"/>
-      <c r="S15" s="259"/>
-      <c r="T15" s="259"/>
-      <c r="U15" s="259"/>
-      <c r="V15" s="259"/>
-      <c r="W15" s="259"/>
-      <c r="X15" s="259"/>
-      <c r="Y15" s="259"/>
-      <c r="Z15" s="259"/>
-      <c r="AA15" s="259"/>
-      <c r="AB15" s="259"/>
-      <c r="AC15" s="259"/>
-      <c r="AD15" s="259"/>
-      <c r="AE15" s="260"/>
-      <c r="AF15" s="255"/>
-      <c r="AG15" s="256"/>
-      <c r="AH15" s="256"/>
-      <c r="AI15" s="257"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="219"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="221"/>
+      <c r="Q15" s="222"/>
+      <c r="R15" s="223"/>
+      <c r="S15" s="223"/>
+      <c r="T15" s="223"/>
+      <c r="U15" s="223"/>
+      <c r="V15" s="223"/>
+      <c r="W15" s="223"/>
+      <c r="X15" s="223"/>
+      <c r="Y15" s="223"/>
+      <c r="Z15" s="223"/>
+      <c r="AA15" s="223"/>
+      <c r="AB15" s="223"/>
+      <c r="AC15" s="223"/>
+      <c r="AD15" s="223"/>
+      <c r="AE15" s="224"/>
+      <c r="AF15" s="219"/>
+      <c r="AG15" s="220"/>
+      <c r="AH15" s="220"/>
+      <c r="AI15" s="221"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="249"/>
-      <c r="C16" s="250"/>
-      <c r="D16" s="251"/>
-      <c r="E16" s="252"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="255"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
-      <c r="Q16" s="258"/>
-      <c r="R16" s="259"/>
-      <c r="S16" s="259"/>
-      <c r="T16" s="259"/>
-      <c r="U16" s="259"/>
-      <c r="V16" s="259"/>
-      <c r="W16" s="259"/>
-      <c r="X16" s="259"/>
-      <c r="Y16" s="259"/>
-      <c r="Z16" s="259"/>
-      <c r="AA16" s="259"/>
-      <c r="AB16" s="259"/>
-      <c r="AC16" s="259"/>
-      <c r="AD16" s="259"/>
-      <c r="AE16" s="260"/>
-      <c r="AF16" s="255"/>
-      <c r="AG16" s="256"/>
-      <c r="AH16" s="256"/>
-      <c r="AI16" s="257"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="217"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="220"/>
+      <c r="O16" s="220"/>
+      <c r="P16" s="221"/>
+      <c r="Q16" s="222"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="223"/>
+      <c r="U16" s="223"/>
+      <c r="V16" s="223"/>
+      <c r="W16" s="223"/>
+      <c r="X16" s="223"/>
+      <c r="Y16" s="223"/>
+      <c r="Z16" s="223"/>
+      <c r="AA16" s="223"/>
+      <c r="AB16" s="223"/>
+      <c r="AC16" s="223"/>
+      <c r="AD16" s="223"/>
+      <c r="AE16" s="224"/>
+      <c r="AF16" s="219"/>
+      <c r="AG16" s="220"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="221"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="252"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="255"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="257"/>
-      <c r="Q17" s="258"/>
-      <c r="R17" s="259"/>
-      <c r="S17" s="259"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="259"/>
-      <c r="V17" s="259"/>
-      <c r="W17" s="259"/>
-      <c r="X17" s="259"/>
-      <c r="Y17" s="259"/>
-      <c r="Z17" s="259"/>
-      <c r="AA17" s="259"/>
-      <c r="AB17" s="259"/>
-      <c r="AC17" s="259"/>
-      <c r="AD17" s="259"/>
-      <c r="AE17" s="260"/>
-      <c r="AF17" s="255"/>
-      <c r="AG17" s="256"/>
-      <c r="AH17" s="256"/>
-      <c r="AI17" s="257"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="220"/>
+      <c r="L17" s="220"/>
+      <c r="M17" s="220"/>
+      <c r="N17" s="220"/>
+      <c r="O17" s="220"/>
+      <c r="P17" s="221"/>
+      <c r="Q17" s="222"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="223"/>
+      <c r="V17" s="223"/>
+      <c r="W17" s="223"/>
+      <c r="X17" s="223"/>
+      <c r="Y17" s="223"/>
+      <c r="Z17" s="223"/>
+      <c r="AA17" s="223"/>
+      <c r="AB17" s="223"/>
+      <c r="AC17" s="223"/>
+      <c r="AD17" s="223"/>
+      <c r="AE17" s="224"/>
+      <c r="AF17" s="219"/>
+      <c r="AG17" s="220"/>
+      <c r="AH17" s="220"/>
+      <c r="AI17" s="221"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="249"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="253"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="254"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="255"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="257"/>
-      <c r="Q18" s="258"/>
-      <c r="R18" s="259"/>
-      <c r="S18" s="259"/>
-      <c r="T18" s="259"/>
-      <c r="U18" s="259"/>
-      <c r="V18" s="259"/>
-      <c r="W18" s="259"/>
-      <c r="X18" s="259"/>
-      <c r="Y18" s="259"/>
-      <c r="Z18" s="259"/>
-      <c r="AA18" s="259"/>
-      <c r="AB18" s="259"/>
-      <c r="AC18" s="259"/>
-      <c r="AD18" s="259"/>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="255"/>
-      <c r="AG18" s="256"/>
-      <c r="AH18" s="256"/>
-      <c r="AI18" s="257"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
+      <c r="O18" s="220"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="222"/>
+      <c r="R18" s="223"/>
+      <c r="S18" s="223"/>
+      <c r="T18" s="223"/>
+      <c r="U18" s="223"/>
+      <c r="V18" s="223"/>
+      <c r="W18" s="223"/>
+      <c r="X18" s="223"/>
+      <c r="Y18" s="223"/>
+      <c r="Z18" s="223"/>
+      <c r="AA18" s="223"/>
+      <c r="AB18" s="223"/>
+      <c r="AC18" s="223"/>
+      <c r="AD18" s="223"/>
+      <c r="AE18" s="224"/>
+      <c r="AF18" s="219"/>
+      <c r="AG18" s="220"/>
+      <c r="AH18" s="220"/>
+      <c r="AI18" s="221"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="249"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="252"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="254"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="255"/>
-      <c r="K19" s="256"/>
-      <c r="L19" s="256"/>
-      <c r="M19" s="256"/>
-      <c r="N19" s="256"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="257"/>
-      <c r="Q19" s="258"/>
-      <c r="R19" s="259"/>
-      <c r="S19" s="259"/>
-      <c r="T19" s="259"/>
-      <c r="U19" s="259"/>
-      <c r="V19" s="259"/>
-      <c r="W19" s="259"/>
-      <c r="X19" s="259"/>
-      <c r="Y19" s="259"/>
-      <c r="Z19" s="259"/>
-      <c r="AA19" s="259"/>
-      <c r="AB19" s="259"/>
-      <c r="AC19" s="259"/>
-      <c r="AD19" s="259"/>
-      <c r="AE19" s="260"/>
-      <c r="AF19" s="255"/>
-      <c r="AG19" s="256"/>
-      <c r="AH19" s="256"/>
-      <c r="AI19" s="257"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="220"/>
+      <c r="P19" s="221"/>
+      <c r="Q19" s="222"/>
+      <c r="R19" s="223"/>
+      <c r="S19" s="223"/>
+      <c r="T19" s="223"/>
+      <c r="U19" s="223"/>
+      <c r="V19" s="223"/>
+      <c r="W19" s="223"/>
+      <c r="X19" s="223"/>
+      <c r="Y19" s="223"/>
+      <c r="Z19" s="223"/>
+      <c r="AA19" s="223"/>
+      <c r="AB19" s="223"/>
+      <c r="AC19" s="223"/>
+      <c r="AD19" s="223"/>
+      <c r="AE19" s="224"/>
+      <c r="AF19" s="219"/>
+      <c r="AG19" s="220"/>
+      <c r="AH19" s="220"/>
+      <c r="AI19" s="221"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="249"/>
-      <c r="C20" s="250"/>
-      <c r="D20" s="251"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="249"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="250"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="256"/>
-      <c r="L20" s="256"/>
-      <c r="M20" s="256"/>
-      <c r="N20" s="256"/>
-      <c r="O20" s="256"/>
-      <c r="P20" s="257"/>
-      <c r="Q20" s="258"/>
-      <c r="R20" s="259"/>
-      <c r="S20" s="259"/>
-      <c r="T20" s="259"/>
-      <c r="U20" s="259"/>
-      <c r="V20" s="259"/>
-      <c r="W20" s="259"/>
-      <c r="X20" s="259"/>
-      <c r="Y20" s="259"/>
-      <c r="Z20" s="259"/>
-      <c r="AA20" s="259"/>
-      <c r="AB20" s="259"/>
-      <c r="AC20" s="259"/>
-      <c r="AD20" s="259"/>
-      <c r="AE20" s="260"/>
-      <c r="AF20" s="255"/>
-      <c r="AG20" s="256"/>
-      <c r="AH20" s="256"/>
-      <c r="AI20" s="257"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="221"/>
+      <c r="Q20" s="222"/>
+      <c r="R20" s="223"/>
+      <c r="S20" s="223"/>
+      <c r="T20" s="223"/>
+      <c r="U20" s="223"/>
+      <c r="V20" s="223"/>
+      <c r="W20" s="223"/>
+      <c r="X20" s="223"/>
+      <c r="Y20" s="223"/>
+      <c r="Z20" s="223"/>
+      <c r="AA20" s="223"/>
+      <c r="AB20" s="223"/>
+      <c r="AC20" s="223"/>
+      <c r="AD20" s="223"/>
+      <c r="AE20" s="224"/>
+      <c r="AF20" s="219"/>
+      <c r="AG20" s="220"/>
+      <c r="AH20" s="220"/>
+      <c r="AI20" s="221"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="249"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="255"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="256"/>
-      <c r="M21" s="256"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="256"/>
-      <c r="P21" s="257"/>
-      <c r="Q21" s="258"/>
-      <c r="R21" s="259"/>
-      <c r="S21" s="259"/>
-      <c r="T21" s="259"/>
-      <c r="U21" s="259"/>
-      <c r="V21" s="259"/>
-      <c r="W21" s="259"/>
-      <c r="X21" s="259"/>
-      <c r="Y21" s="259"/>
-      <c r="Z21" s="259"/>
-      <c r="AA21" s="259"/>
-      <c r="AB21" s="259"/>
-      <c r="AC21" s="259"/>
-      <c r="AD21" s="259"/>
-      <c r="AE21" s="260"/>
-      <c r="AF21" s="255"/>
-      <c r="AG21" s="256"/>
-      <c r="AH21" s="256"/>
-      <c r="AI21" s="257"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="220"/>
+      <c r="N21" s="220"/>
+      <c r="O21" s="220"/>
+      <c r="P21" s="221"/>
+      <c r="Q21" s="222"/>
+      <c r="R21" s="223"/>
+      <c r="S21" s="223"/>
+      <c r="T21" s="223"/>
+      <c r="U21" s="223"/>
+      <c r="V21" s="223"/>
+      <c r="W21" s="223"/>
+      <c r="X21" s="223"/>
+      <c r="Y21" s="223"/>
+      <c r="Z21" s="223"/>
+      <c r="AA21" s="223"/>
+      <c r="AB21" s="223"/>
+      <c r="AC21" s="223"/>
+      <c r="AD21" s="223"/>
+      <c r="AE21" s="224"/>
+      <c r="AF21" s="219"/>
+      <c r="AG21" s="220"/>
+      <c r="AH21" s="220"/>
+      <c r="AI21" s="221"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="249"/>
-      <c r="C22" s="250"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="252"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="249"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="250"/>
-      <c r="J22" s="255"/>
-      <c r="K22" s="256"/>
-      <c r="L22" s="256"/>
-      <c r="M22" s="256"/>
-      <c r="N22" s="256"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="257"/>
-      <c r="Q22" s="258"/>
-      <c r="R22" s="259"/>
-      <c r="S22" s="259"/>
-      <c r="T22" s="259"/>
-      <c r="U22" s="259"/>
-      <c r="V22" s="259"/>
-      <c r="W22" s="259"/>
-      <c r="X22" s="259"/>
-      <c r="Y22" s="259"/>
-      <c r="Z22" s="259"/>
-      <c r="AA22" s="259"/>
-      <c r="AB22" s="259"/>
-      <c r="AC22" s="259"/>
-      <c r="AD22" s="259"/>
-      <c r="AE22" s="260"/>
-      <c r="AF22" s="255"/>
-      <c r="AG22" s="256"/>
-      <c r="AH22" s="256"/>
-      <c r="AI22" s="257"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="221"/>
+      <c r="Q22" s="222"/>
+      <c r="R22" s="223"/>
+      <c r="S22" s="223"/>
+      <c r="T22" s="223"/>
+      <c r="U22" s="223"/>
+      <c r="V22" s="223"/>
+      <c r="W22" s="223"/>
+      <c r="X22" s="223"/>
+      <c r="Y22" s="223"/>
+      <c r="Z22" s="223"/>
+      <c r="AA22" s="223"/>
+      <c r="AB22" s="223"/>
+      <c r="AC22" s="223"/>
+      <c r="AD22" s="223"/>
+      <c r="AE22" s="224"/>
+      <c r="AF22" s="219"/>
+      <c r="AG22" s="220"/>
+      <c r="AH22" s="220"/>
+      <c r="AI22" s="221"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="255"/>
-      <c r="K23" s="256"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="257"/>
-      <c r="Q23" s="258"/>
-      <c r="R23" s="259"/>
-      <c r="S23" s="259"/>
-      <c r="T23" s="259"/>
-      <c r="U23" s="259"/>
-      <c r="V23" s="259"/>
-      <c r="W23" s="259"/>
-      <c r="X23" s="259"/>
-      <c r="Y23" s="259"/>
-      <c r="Z23" s="259"/>
-      <c r="AA23" s="259"/>
-      <c r="AB23" s="259"/>
-      <c r="AC23" s="259"/>
-      <c r="AD23" s="259"/>
-      <c r="AE23" s="260"/>
-      <c r="AF23" s="255"/>
-      <c r="AG23" s="256"/>
-      <c r="AH23" s="256"/>
-      <c r="AI23" s="257"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="220"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="220"/>
+      <c r="N23" s="220"/>
+      <c r="O23" s="220"/>
+      <c r="P23" s="221"/>
+      <c r="Q23" s="222"/>
+      <c r="R23" s="223"/>
+      <c r="S23" s="223"/>
+      <c r="T23" s="223"/>
+      <c r="U23" s="223"/>
+      <c r="V23" s="223"/>
+      <c r="W23" s="223"/>
+      <c r="X23" s="223"/>
+      <c r="Y23" s="223"/>
+      <c r="Z23" s="223"/>
+      <c r="AA23" s="223"/>
+      <c r="AB23" s="223"/>
+      <c r="AC23" s="223"/>
+      <c r="AD23" s="223"/>
+      <c r="AE23" s="224"/>
+      <c r="AF23" s="219"/>
+      <c r="AG23" s="220"/>
+      <c r="AH23" s="220"/>
+      <c r="AI23" s="221"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="249"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="251"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="256"/>
-      <c r="L24" s="256"/>
-      <c r="M24" s="256"/>
-      <c r="N24" s="256"/>
-      <c r="O24" s="256"/>
-      <c r="P24" s="257"/>
-      <c r="Q24" s="258"/>
-      <c r="R24" s="259"/>
-      <c r="S24" s="259"/>
-      <c r="T24" s="259"/>
-      <c r="U24" s="259"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="259"/>
-      <c r="X24" s="259"/>
-      <c r="Y24" s="259"/>
-      <c r="Z24" s="259"/>
-      <c r="AA24" s="259"/>
-      <c r="AB24" s="259"/>
-      <c r="AC24" s="259"/>
-      <c r="AD24" s="259"/>
-      <c r="AE24" s="260"/>
-      <c r="AF24" s="255"/>
-      <c r="AG24" s="256"/>
-      <c r="AH24" s="256"/>
-      <c r="AI24" s="257"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="220"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="220"/>
+      <c r="O24" s="220"/>
+      <c r="P24" s="221"/>
+      <c r="Q24" s="222"/>
+      <c r="R24" s="223"/>
+      <c r="S24" s="223"/>
+      <c r="T24" s="223"/>
+      <c r="U24" s="223"/>
+      <c r="V24" s="223"/>
+      <c r="W24" s="223"/>
+      <c r="X24" s="223"/>
+      <c r="Y24" s="223"/>
+      <c r="Z24" s="223"/>
+      <c r="AA24" s="223"/>
+      <c r="AB24" s="223"/>
+      <c r="AC24" s="223"/>
+      <c r="AD24" s="223"/>
+      <c r="AE24" s="224"/>
+      <c r="AF24" s="219"/>
+      <c r="AG24" s="220"/>
+      <c r="AH24" s="220"/>
+      <c r="AI24" s="221"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="249"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="256"/>
-      <c r="L25" s="256"/>
-      <c r="M25" s="256"/>
-      <c r="N25" s="256"/>
-      <c r="O25" s="256"/>
-      <c r="P25" s="257"/>
-      <c r="Q25" s="258"/>
-      <c r="R25" s="259"/>
-      <c r="S25" s="259"/>
-      <c r="T25" s="259"/>
-      <c r="U25" s="259"/>
-      <c r="V25" s="259"/>
-      <c r="W25" s="259"/>
-      <c r="X25" s="259"/>
-      <c r="Y25" s="259"/>
-      <c r="Z25" s="259"/>
-      <c r="AA25" s="259"/>
-      <c r="AB25" s="259"/>
-      <c r="AC25" s="259"/>
-      <c r="AD25" s="259"/>
-      <c r="AE25" s="260"/>
-      <c r="AF25" s="255"/>
-      <c r="AG25" s="256"/>
-      <c r="AH25" s="256"/>
-      <c r="AI25" s="257"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="222"/>
+      <c r="R25" s="223"/>
+      <c r="S25" s="223"/>
+      <c r="T25" s="223"/>
+      <c r="U25" s="223"/>
+      <c r="V25" s="223"/>
+      <c r="W25" s="223"/>
+      <c r="X25" s="223"/>
+      <c r="Y25" s="223"/>
+      <c r="Z25" s="223"/>
+      <c r="AA25" s="223"/>
+      <c r="AB25" s="223"/>
+      <c r="AC25" s="223"/>
+      <c r="AD25" s="223"/>
+      <c r="AE25" s="224"/>
+      <c r="AF25" s="219"/>
+      <c r="AG25" s="220"/>
+      <c r="AH25" s="220"/>
+      <c r="AI25" s="221"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="249"/>
-      <c r="C26" s="250"/>
-      <c r="D26" s="251"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="255"/>
-      <c r="K26" s="256"/>
-      <c r="L26" s="256"/>
-      <c r="M26" s="256"/>
-      <c r="N26" s="256"/>
-      <c r="O26" s="256"/>
-      <c r="P26" s="257"/>
-      <c r="Q26" s="258"/>
-      <c r="R26" s="259"/>
-      <c r="S26" s="259"/>
-      <c r="T26" s="259"/>
-      <c r="U26" s="259"/>
-      <c r="V26" s="259"/>
-      <c r="W26" s="259"/>
-      <c r="X26" s="259"/>
-      <c r="Y26" s="259"/>
-      <c r="Z26" s="259"/>
-      <c r="AA26" s="259"/>
-      <c r="AB26" s="259"/>
-      <c r="AC26" s="259"/>
-      <c r="AD26" s="259"/>
-      <c r="AE26" s="260"/>
-      <c r="AF26" s="255"/>
-      <c r="AG26" s="256"/>
-      <c r="AH26" s="256"/>
-      <c r="AI26" s="257"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="220"/>
+      <c r="M26" s="220"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="222"/>
+      <c r="R26" s="223"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="223"/>
+      <c r="V26" s="223"/>
+      <c r="W26" s="223"/>
+      <c r="X26" s="223"/>
+      <c r="Y26" s="223"/>
+      <c r="Z26" s="223"/>
+      <c r="AA26" s="223"/>
+      <c r="AB26" s="223"/>
+      <c r="AC26" s="223"/>
+      <c r="AD26" s="223"/>
+      <c r="AE26" s="224"/>
+      <c r="AF26" s="219"/>
+      <c r="AG26" s="220"/>
+      <c r="AH26" s="220"/>
+      <c r="AI26" s="221"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="249"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="252"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="254"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="255"/>
-      <c r="K27" s="256"/>
-      <c r="L27" s="256"/>
-      <c r="M27" s="256"/>
-      <c r="N27" s="256"/>
-      <c r="O27" s="256"/>
-      <c r="P27" s="257"/>
-      <c r="Q27" s="258"/>
-      <c r="R27" s="259"/>
-      <c r="S27" s="259"/>
-      <c r="T27" s="259"/>
-      <c r="U27" s="259"/>
-      <c r="V27" s="259"/>
-      <c r="W27" s="259"/>
-      <c r="X27" s="259"/>
-      <c r="Y27" s="259"/>
-      <c r="Z27" s="259"/>
-      <c r="AA27" s="259"/>
-      <c r="AB27" s="259"/>
-      <c r="AC27" s="259"/>
-      <c r="AD27" s="259"/>
-      <c r="AE27" s="260"/>
-      <c r="AF27" s="255"/>
-      <c r="AG27" s="256"/>
-      <c r="AH27" s="256"/>
-      <c r="AI27" s="257"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="220"/>
+      <c r="L27" s="220"/>
+      <c r="M27" s="220"/>
+      <c r="N27" s="220"/>
+      <c r="O27" s="220"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="222"/>
+      <c r="R27" s="223"/>
+      <c r="S27" s="223"/>
+      <c r="T27" s="223"/>
+      <c r="U27" s="223"/>
+      <c r="V27" s="223"/>
+      <c r="W27" s="223"/>
+      <c r="X27" s="223"/>
+      <c r="Y27" s="223"/>
+      <c r="Z27" s="223"/>
+      <c r="AA27" s="223"/>
+      <c r="AB27" s="223"/>
+      <c r="AC27" s="223"/>
+      <c r="AD27" s="223"/>
+      <c r="AE27" s="224"/>
+      <c r="AF27" s="219"/>
+      <c r="AG27" s="220"/>
+      <c r="AH27" s="220"/>
+      <c r="AI27" s="221"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="251"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="254"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="255"/>
-      <c r="K28" s="256"/>
-      <c r="L28" s="256"/>
-      <c r="M28" s="256"/>
-      <c r="N28" s="256"/>
-      <c r="O28" s="256"/>
-      <c r="P28" s="257"/>
-      <c r="Q28" s="258"/>
-      <c r="R28" s="259"/>
-      <c r="S28" s="259"/>
-      <c r="T28" s="259"/>
-      <c r="U28" s="259"/>
-      <c r="V28" s="259"/>
-      <c r="W28" s="259"/>
-      <c r="X28" s="259"/>
-      <c r="Y28" s="259"/>
-      <c r="Z28" s="259"/>
-      <c r="AA28" s="259"/>
-      <c r="AB28" s="259"/>
-      <c r="AC28" s="259"/>
-      <c r="AD28" s="259"/>
-      <c r="AE28" s="260"/>
-      <c r="AF28" s="255"/>
-      <c r="AG28" s="256"/>
-      <c r="AH28" s="256"/>
-      <c r="AI28" s="257"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="220"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="222"/>
+      <c r="R28" s="223"/>
+      <c r="S28" s="223"/>
+      <c r="T28" s="223"/>
+      <c r="U28" s="223"/>
+      <c r="V28" s="223"/>
+      <c r="W28" s="223"/>
+      <c r="X28" s="223"/>
+      <c r="Y28" s="223"/>
+      <c r="Z28" s="223"/>
+      <c r="AA28" s="223"/>
+      <c r="AB28" s="223"/>
+      <c r="AC28" s="223"/>
+      <c r="AD28" s="223"/>
+      <c r="AE28" s="224"/>
+      <c r="AF28" s="219"/>
+      <c r="AG28" s="220"/>
+      <c r="AH28" s="220"/>
+      <c r="AI28" s="221"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="249"/>
-      <c r="C29" s="250"/>
-      <c r="D29" s="251"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="254"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="255"/>
-      <c r="K29" s="256"/>
-      <c r="L29" s="256"/>
-      <c r="M29" s="256"/>
-      <c r="N29" s="256"/>
-      <c r="O29" s="256"/>
-      <c r="P29" s="257"/>
-      <c r="Q29" s="258"/>
-      <c r="R29" s="259"/>
-      <c r="S29" s="259"/>
-      <c r="T29" s="259"/>
-      <c r="U29" s="259"/>
-      <c r="V29" s="259"/>
-      <c r="W29" s="259"/>
-      <c r="X29" s="259"/>
-      <c r="Y29" s="259"/>
-      <c r="Z29" s="259"/>
-      <c r="AA29" s="259"/>
-      <c r="AB29" s="259"/>
-      <c r="AC29" s="259"/>
-      <c r="AD29" s="259"/>
-      <c r="AE29" s="260"/>
-      <c r="AF29" s="255"/>
-      <c r="AG29" s="256"/>
-      <c r="AH29" s="256"/>
-      <c r="AI29" s="257"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="220"/>
+      <c r="L29" s="220"/>
+      <c r="M29" s="220"/>
+      <c r="N29" s="220"/>
+      <c r="O29" s="220"/>
+      <c r="P29" s="221"/>
+      <c r="Q29" s="222"/>
+      <c r="R29" s="223"/>
+      <c r="S29" s="223"/>
+      <c r="T29" s="223"/>
+      <c r="U29" s="223"/>
+      <c r="V29" s="223"/>
+      <c r="W29" s="223"/>
+      <c r="X29" s="223"/>
+      <c r="Y29" s="223"/>
+      <c r="Z29" s="223"/>
+      <c r="AA29" s="223"/>
+      <c r="AB29" s="223"/>
+      <c r="AC29" s="223"/>
+      <c r="AD29" s="223"/>
+      <c r="AE29" s="224"/>
+      <c r="AF29" s="219"/>
+      <c r="AG29" s="220"/>
+      <c r="AH29" s="220"/>
+      <c r="AI29" s="221"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="249"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="251"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="254"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="255"/>
-      <c r="K30" s="256"/>
-      <c r="L30" s="256"/>
-      <c r="M30" s="256"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="256"/>
-      <c r="P30" s="257"/>
-      <c r="Q30" s="258"/>
-      <c r="R30" s="259"/>
-      <c r="S30" s="259"/>
-      <c r="T30" s="259"/>
-      <c r="U30" s="259"/>
-      <c r="V30" s="259"/>
-      <c r="W30" s="259"/>
-      <c r="X30" s="259"/>
-      <c r="Y30" s="259"/>
-      <c r="Z30" s="259"/>
-      <c r="AA30" s="259"/>
-      <c r="AB30" s="259"/>
-      <c r="AC30" s="259"/>
-      <c r="AD30" s="259"/>
-      <c r="AE30" s="260"/>
-      <c r="AF30" s="255"/>
-      <c r="AG30" s="256"/>
-      <c r="AH30" s="256"/>
-      <c r="AI30" s="257"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="220"/>
+      <c r="P30" s="221"/>
+      <c r="Q30" s="222"/>
+      <c r="R30" s="223"/>
+      <c r="S30" s="223"/>
+      <c r="T30" s="223"/>
+      <c r="U30" s="223"/>
+      <c r="V30" s="223"/>
+      <c r="W30" s="223"/>
+      <c r="X30" s="223"/>
+      <c r="Y30" s="223"/>
+      <c r="Z30" s="223"/>
+      <c r="AA30" s="223"/>
+      <c r="AB30" s="223"/>
+      <c r="AC30" s="223"/>
+      <c r="AD30" s="223"/>
+      <c r="AE30" s="224"/>
+      <c r="AF30" s="219"/>
+      <c r="AG30" s="220"/>
+      <c r="AH30" s="220"/>
+      <c r="AI30" s="221"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="249"/>
-      <c r="C31" s="250"/>
-      <c r="D31" s="251"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="254"/>
-      <c r="I31" s="250"/>
-      <c r="J31" s="255"/>
-      <c r="K31" s="256"/>
-      <c r="L31" s="256"/>
-      <c r="M31" s="256"/>
-      <c r="N31" s="256"/>
-      <c r="O31" s="256"/>
-      <c r="P31" s="257"/>
-      <c r="Q31" s="258"/>
-      <c r="R31" s="259"/>
-      <c r="S31" s="259"/>
-      <c r="T31" s="259"/>
-      <c r="U31" s="259"/>
-      <c r="V31" s="259"/>
-      <c r="W31" s="259"/>
-      <c r="X31" s="259"/>
-      <c r="Y31" s="259"/>
-      <c r="Z31" s="259"/>
-      <c r="AA31" s="259"/>
-      <c r="AB31" s="259"/>
-      <c r="AC31" s="259"/>
-      <c r="AD31" s="259"/>
-      <c r="AE31" s="260"/>
-      <c r="AF31" s="255"/>
-      <c r="AG31" s="256"/>
-      <c r="AH31" s="256"/>
-      <c r="AI31" s="257"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="220"/>
+      <c r="N31" s="220"/>
+      <c r="O31" s="220"/>
+      <c r="P31" s="221"/>
+      <c r="Q31" s="222"/>
+      <c r="R31" s="223"/>
+      <c r="S31" s="223"/>
+      <c r="T31" s="223"/>
+      <c r="U31" s="223"/>
+      <c r="V31" s="223"/>
+      <c r="W31" s="223"/>
+      <c r="X31" s="223"/>
+      <c r="Y31" s="223"/>
+      <c r="Z31" s="223"/>
+      <c r="AA31" s="223"/>
+      <c r="AB31" s="223"/>
+      <c r="AC31" s="223"/>
+      <c r="AD31" s="223"/>
+      <c r="AE31" s="224"/>
+      <c r="AF31" s="219"/>
+      <c r="AG31" s="220"/>
+      <c r="AH31" s="220"/>
+      <c r="AI31" s="221"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="249"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="251"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="249"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="270"/>
-      <c r="L32" s="256"/>
-      <c r="M32" s="256"/>
-      <c r="N32" s="256"/>
-      <c r="O32" s="256"/>
-      <c r="P32" s="257"/>
-      <c r="Q32" s="258"/>
-      <c r="R32" s="259"/>
-      <c r="S32" s="259"/>
-      <c r="T32" s="259"/>
-      <c r="U32" s="259"/>
-      <c r="V32" s="259"/>
-      <c r="W32" s="259"/>
-      <c r="X32" s="259"/>
-      <c r="Y32" s="259"/>
-      <c r="Z32" s="259"/>
-      <c r="AA32" s="259"/>
-      <c r="AB32" s="259"/>
-      <c r="AC32" s="259"/>
-      <c r="AD32" s="259"/>
-      <c r="AE32" s="260"/>
-      <c r="AF32" s="255"/>
-      <c r="AG32" s="256"/>
-      <c r="AH32" s="256"/>
-      <c r="AI32" s="257"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="225"/>
+      <c r="L32" s="220"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="220"/>
+      <c r="O32" s="220"/>
+      <c r="P32" s="221"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="223"/>
+      <c r="S32" s="223"/>
+      <c r="T32" s="223"/>
+      <c r="U32" s="223"/>
+      <c r="V32" s="223"/>
+      <c r="W32" s="223"/>
+      <c r="X32" s="223"/>
+      <c r="Y32" s="223"/>
+      <c r="Z32" s="223"/>
+      <c r="AA32" s="223"/>
+      <c r="AB32" s="223"/>
+      <c r="AC32" s="223"/>
+      <c r="AD32" s="223"/>
+      <c r="AE32" s="224"/>
+      <c r="AF32" s="219"/>
+      <c r="AG32" s="220"/>
+      <c r="AH32" s="220"/>
+      <c r="AI32" s="221"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="249"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="251"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="255"/>
-      <c r="K33" s="256"/>
-      <c r="L33" s="256"/>
-      <c r="M33" s="256"/>
-      <c r="N33" s="256"/>
-      <c r="O33" s="256"/>
-      <c r="P33" s="257"/>
-      <c r="Q33" s="258"/>
-      <c r="R33" s="259"/>
-      <c r="S33" s="259"/>
-      <c r="T33" s="259"/>
-      <c r="U33" s="259"/>
-      <c r="V33" s="259"/>
-      <c r="W33" s="259"/>
-      <c r="X33" s="259"/>
-      <c r="Y33" s="259"/>
-      <c r="Z33" s="259"/>
-      <c r="AA33" s="259"/>
-      <c r="AB33" s="259"/>
-      <c r="AC33" s="259"/>
-      <c r="AD33" s="259"/>
-      <c r="AE33" s="260"/>
-      <c r="AF33" s="255"/>
-      <c r="AG33" s="256"/>
-      <c r="AH33" s="256"/>
-      <c r="AI33" s="257"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="220"/>
+      <c r="N33" s="220"/>
+      <c r="O33" s="220"/>
+      <c r="P33" s="221"/>
+      <c r="Q33" s="222"/>
+      <c r="R33" s="223"/>
+      <c r="S33" s="223"/>
+      <c r="T33" s="223"/>
+      <c r="U33" s="223"/>
+      <c r="V33" s="223"/>
+      <c r="W33" s="223"/>
+      <c r="X33" s="223"/>
+      <c r="Y33" s="223"/>
+      <c r="Z33" s="223"/>
+      <c r="AA33" s="223"/>
+      <c r="AB33" s="223"/>
+      <c r="AC33" s="223"/>
+      <c r="AD33" s="223"/>
+      <c r="AE33" s="224"/>
+      <c r="AF33" s="219"/>
+      <c r="AG33" s="220"/>
+      <c r="AH33" s="220"/>
+      <c r="AI33" s="221"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -9115,6 +8966,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -9272,54 +9278,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="219" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="222" t="str">
+      <c r="A1" s="241" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="228" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="237" t="str">
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="250" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="259" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト仕様書(リクエスト・取引単体（メッセージ）)
 サンプル取引/RMXXXXXXXX</v>
       </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="219" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="246" t="str">
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
+      <c r="X1" s="260"/>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="261"/>
+      <c r="AA1" s="241" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="247"/>
-      <c r="AE1" s="247"/>
-      <c r="AF1" s="248"/>
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="270"/>
       <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -9331,48 +9337,48 @@
       <c r="AL1" s="12"/>
     </row>
     <row r="2" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="219" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="222" t="str">
+      <c r="A2" s="241" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="241"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="219" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="246" t="str">
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="263"/>
+      <c r="U2" s="263"/>
+      <c r="V2" s="263"/>
+      <c r="W2" s="263"/>
+      <c r="X2" s="263"/>
+      <c r="Y2" s="263"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="241" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB2" s="243"/>
+      <c r="AC2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="247"/>
-      <c r="AE2" s="247"/>
-      <c r="AF2" s="248"/>
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="270"/>
       <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -9384,46 +9390,46 @@
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="219" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222" t="str">
+      <c r="A3" s="241" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="236"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="246" t="str">
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="266"/>
+      <c r="W3" s="266"/>
+      <c r="X3" s="266"/>
+      <c r="Y3" s="266"/>
+      <c r="Z3" s="267"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="243"/>
+      <c r="AC3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="247"/>
-      <c r="AE3" s="247"/>
-      <c r="AF3" s="248"/>
+      <c r="AD3" s="269"/>
+      <c r="AE3" s="269"/>
+      <c r="AF3" s="270"/>
       <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -9489,7 +9495,7 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
@@ -9550,7 +9556,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1">
       <c r="A7" s="28"/>
       <c r="B7" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -9590,7 +9596,7 @@
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -9629,7 +9635,7 @@
       <c r="A9" s="28"/>
       <c r="B9" s="30"/>
       <c r="C9" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -9668,7 +9674,7 @@
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -10898,6 +10904,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -10907,14 +10921,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -10949,7 +10955,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -10959,17 +10965,17 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F6" s="72" t="s">
         <v>24</v>
@@ -10980,7 +10986,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="72" t="s">
         <v>25</v>
@@ -11009,7 +11015,7 @@
     <row r="9" spans="1:15" ht="243" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:15" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>11</v>
@@ -11053,7 +11059,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="274" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" s="275"/>
       <c r="C11" s="275"/>
@@ -11080,22 +11086,22 @@
         <v>114</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I12" s="85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
@@ -11112,14 +11118,14 @@
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
       <c r="F13" s="83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H13" s="89"/>
       <c r="I13" s="85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
@@ -11136,10 +11142,10 @@
         <v>115</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
@@ -11160,22 +11166,22 @@
         <v>116</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J15" s="86"/>
       <c r="K15" s="86"/>
@@ -11192,14 +11198,14 @@
       <c r="D16" s="88"/>
       <c r="E16" s="88"/>
       <c r="F16" s="83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G16" s="83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H16" s="89"/>
       <c r="I16" s="85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J16" s="86"/>
       <c r="K16" s="86"/>
@@ -11216,10 +11222,10 @@
         <v>57</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
@@ -11240,10 +11246,10 @@
         <v>58</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
@@ -11266,22 +11272,22 @@
         <v>117</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G19" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="84" t="s">
-        <v>193</v>
-      </c>
       <c r="I19" s="85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J19" s="86"/>
       <c r="K19" s="86"/>
@@ -11298,14 +11304,14 @@
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
       <c r="F20" s="83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H20" s="89"/>
       <c r="I20" s="85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
@@ -11322,10 +11328,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
@@ -11346,10 +11352,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E22" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
@@ -11370,10 +11376,10 @@
         <v>60</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
@@ -11394,10 +11400,10 @@
         <v>120</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
@@ -11420,10 +11426,10 @@
         <v>33</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E25" s="106" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
@@ -11444,10 +11450,10 @@
         <v>34</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E26" s="108" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
@@ -11468,10 +11474,10 @@
         <v>30</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E27" s="109" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
@@ -11492,10 +11498,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
@@ -11516,10 +11522,10 @@
         <v>31</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E29" s="98" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
@@ -11540,10 +11546,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="110" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E30" s="110" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="93"/>
@@ -11566,10 +11572,10 @@
         <v>63</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
@@ -11590,10 +11596,10 @@
         <v>64</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E32" s="109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
@@ -11614,10 +11620,10 @@
         <v>65</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E33" s="109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F33" s="93"/>
       <c r="G33" s="93"/>
@@ -11638,10 +11644,10 @@
         <v>66</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E34" s="109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
@@ -11724,7 +11730,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -11734,17 +11740,17 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H6" s="72" t="s">
         <v>24</v>
@@ -11755,7 +11761,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H7" s="72" t="s">
         <v>25</v>
@@ -11766,7 +11772,7 @@
     </row>
     <row r="8" spans="1:16" ht="12" thickBot="1">
       <c r="A8" s="74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
@@ -11787,7 +11793,7 @@
     <row r="9" spans="1:16" ht="120.75" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:16" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>10</v>
@@ -11858,16 +11864,16 @@
         <v>89</v>
       </c>
       <c r="H11" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="84" t="s">
+      <c r="K11" s="85" t="s">
         <v>159</v>
-      </c>
-      <c r="K11" s="85" t="s">
-        <v>161</v>
       </c>
       <c r="L11" s="126"/>
       <c r="M11" s="126"/>
@@ -11877,7 +11883,7 @@
     </row>
     <row r="12" spans="1:16" s="79" customFormat="1" ht="56.25">
       <c r="A12" s="119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="129"/>
       <c r="C12" s="130"/>
@@ -11886,14 +11892,14 @@
       <c r="F12" s="132"/>
       <c r="G12" s="133"/>
       <c r="H12" s="83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I12" s="125" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J12" s="134"/>
       <c r="K12" s="85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L12" s="126"/>
       <c r="M12" s="126"/>
@@ -11903,7 +11909,7 @@
     </row>
     <row r="13" spans="1:16" s="79" customFormat="1" ht="56.25">
       <c r="A13" s="119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="129"/>
       <c r="C13" s="130"/>
@@ -11912,14 +11918,14 @@
       <c r="F13" s="136"/>
       <c r="G13" s="137"/>
       <c r="H13" s="83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I13" s="125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="134"/>
       <c r="K13" s="85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L13" s="126"/>
       <c r="M13" s="126"/>
@@ -11992,10 +11998,10 @@
         <v>129</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G16" s="153" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="154" t="s">
         <v>144</v>
@@ -12004,10 +12010,10 @@
         <v>145</v>
       </c>
       <c r="J16" s="155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K16" s="156" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L16" s="157"/>
       <c r="M16" s="157"/>
@@ -12026,20 +12032,20 @@
         <v>130</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G17" s="153" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H17" s="154" t="s">
         <v>146</v>
       </c>
       <c r="I17" s="154" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="J17" s="161"/>
       <c r="K17" s="156" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L17" s="157"/>
       <c r="M17" s="157"/>
@@ -12058,10 +12064,10 @@
         <v>131</v>
       </c>
       <c r="F18" s="164" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G18" s="164" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H18" s="165"/>
       <c r="I18" s="165"/>
@@ -12084,10 +12090,10 @@
         <v>132</v>
       </c>
       <c r="F19" s="164" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G19" s="164" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H19" s="165"/>
       <c r="I19" s="165"/>
@@ -12110,19 +12116,19 @@
         <v>133</v>
       </c>
       <c r="F20" s="167" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="167" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="167" t="s">
-        <v>236</v>
-      </c>
       <c r="H20" s="154" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="154" t="s">
-        <v>150</v>
-      </c>
       <c r="J20" s="155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K20" s="168">
         <v>2</v>
@@ -12135,7 +12141,7 @@
     </row>
     <row r="21" spans="1:16" ht="33.75">
       <c r="A21" s="149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="150"/>
       <c r="C21" s="130"/>
@@ -12144,10 +12150,10 @@
       <c r="F21" s="170"/>
       <c r="G21" s="170"/>
       <c r="H21" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="154" t="s">
         <v>151</v>
-      </c>
-      <c r="I21" s="154" t="s">
-        <v>152</v>
       </c>
       <c r="J21" s="171"/>
       <c r="K21" s="168">
@@ -12170,16 +12176,16 @@
         <v>134</v>
       </c>
       <c r="F22" s="153" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="153" t="s">
         <v>232</v>
       </c>
-      <c r="G22" s="153" t="s">
-        <v>236</v>
-      </c>
       <c r="H22" s="154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="154" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="J22" s="172"/>
       <c r="K22" s="168">
@@ -12282,10 +12288,10 @@
         <v>122</v>
       </c>
       <c r="F26" s="164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G26" s="164" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H26" s="165"/>
       <c r="I26" s="165"/>
@@ -12308,10 +12314,10 @@
         <v>123</v>
       </c>
       <c r="F27" s="164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G27" s="164" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H27" s="165"/>
       <c r="I27" s="165"/>
@@ -12334,10 +12340,10 @@
         <v>124</v>
       </c>
       <c r="F28" s="164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G28" s="164" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H28" s="165"/>
       <c r="I28" s="165"/>
@@ -12360,10 +12366,10 @@
         <v>125</v>
       </c>
       <c r="F29" s="164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G29" s="164" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H29" s="165"/>
       <c r="I29" s="165"/>
@@ -12414,10 +12420,10 @@
       </c>
       <c r="E31" s="184"/>
       <c r="F31" s="153" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G31" s="153" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H31" s="168" t="s">
         <v>140</v>
@@ -12426,7 +12432,7 @@
         <v>141</v>
       </c>
       <c r="J31" s="155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K31" s="168">
         <v>3</v>
@@ -12448,10 +12454,10 @@
       </c>
       <c r="E32" s="189"/>
       <c r="F32" s="190" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G32" s="190" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H32" s="191"/>
       <c r="I32" s="191"/>
@@ -12474,10 +12480,10 @@
       </c>
       <c r="E33" s="184"/>
       <c r="F33" s="153" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G33" s="153" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H33" s="168" t="s">
         <v>142</v>
@@ -12486,7 +12492,7 @@
         <v>141</v>
       </c>
       <c r="J33" s="155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K33" s="168">
         <v>4</v>
@@ -12508,10 +12514,10 @@
       </c>
       <c r="E34" s="184"/>
       <c r="F34" s="153" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G34" s="153" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H34" s="168" t="s">
         <v>143</v>
@@ -12656,7 +12662,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -12666,17 +12672,17 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>24</v>
@@ -12716,7 +12722,7 @@
     <row r="9" spans="1:15" ht="88.5" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:15" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>10</v>
@@ -12781,10 +12787,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="206" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H11" s="206" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I11" s="207"/>
       <c r="J11" s="207"/>
@@ -12810,10 +12816,10 @@
         <v>23</v>
       </c>
       <c r="G12" s="206" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H12" s="206" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I12" s="207"/>
       <c r="J12" s="207"/>
@@ -12825,7 +12831,7 @@
     </row>
     <row r="13" spans="1:15" s="79" customFormat="1" ht="56.25">
       <c r="A13" s="208" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="210"/>
       <c r="C13" s="210"/>
@@ -12833,10 +12839,10 @@
       <c r="E13" s="210"/>
       <c r="F13" s="210"/>
       <c r="G13" s="206" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H13" s="206" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I13" s="207"/>
       <c r="J13" s="207"/>

--- a/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(メッセージ)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(メッセージ)_サンプル.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
   <si>
     <t>システム機能設計書</t>
     <rPh sb="4" eb="6">
@@ -1144,25 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・外部インターフェース設計書通りのレコード構成で出力される。</t>
-    <rPh sb="1" eb="3">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-5-2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1297,44 +1278,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・外部インターフェース設計書のフォーマット仕様通りの編集仕様で出力される。
-・外部インターフェース設計書通りのパディング文字、パディング位置で出力される。</t>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2243,29 +2186,6 @@
 (b)レコード構成</t>
   </si>
   <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-  </si>
-  <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
-(c)システム機能設計書</t>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="45" eb="50">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>(a)作成条件
 (b)作成条件
 (c)処理詳細、イベント詳細</t>
@@ -2337,9 +2257,95 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(a)外部インターフェース設計書
-(b)サブシステムインターフェース設計書
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
 (c)システム機能設計書</t>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="43" eb="48">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(a)外部インタフェース設計書
+(b)サブシステムインタフェース設計書
+(c)システム機能設計書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・外部インタフェース設計書通りのレコード構成で出力される。</t>
+    <rPh sb="1" eb="3">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・外部インタフェース設計書のフォーマット仕様通りの編集仕様で出力される。
+・外部インタフェース設計書通りのパディング文字、パディング位置で出力される。</t>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4319,20 +4325,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1952625" y="2085975"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2266951" y="2486025"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4350,27 +4356,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4378,27 +4372,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -4414,20 +4396,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609725" y="1524000"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1790699" y="2200276"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4445,27 +4427,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4473,27 +4443,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -4509,20 +4467,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1885950" y="2209800"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2143125" y="2457450"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4540,27 +4498,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4568,27 +4514,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6139,19 +6073,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="4724400"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4686300" y="5076824"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6169,27 +6103,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6197,27 +6119,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6229,19 +6139,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="13106400"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4819651" y="11753851"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6259,27 +6169,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6287,27 +6185,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6557,19 +6443,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5657850" y="4162425"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4733925" y="4257675"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6587,27 +6473,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6615,27 +6489,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6647,19 +6509,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>552450</xdr:rowOff>
+      <xdr:rowOff>590550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5819775" y="11953875"/>
+        <a:xfrm rot="20636203">
+          <a:off x="5038725" y="11991975"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6677,27 +6539,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6705,27 +6555,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6917,19 +6755,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5248275" y="1247775"/>
+        <a:xfrm rot="20636203">
+          <a:off x="4829175" y="1343026"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6947,27 +6785,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6975,27 +6801,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7341,7 +7155,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -7915,13 +7729,13 @@
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="241" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="242"/>
       <c r="D1" s="243"/>
       <c r="E1" s="244" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F1" s="245"/>
       <c r="G1" s="245"/>
@@ -7933,13 +7747,13 @@
       <c r="M1" s="245"/>
       <c r="N1" s="246"/>
       <c r="O1" s="250" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P1" s="251"/>
       <c r="Q1" s="251"/>
       <c r="R1" s="252"/>
       <c r="S1" s="259" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="T1" s="260"/>
       <c r="U1" s="260"/>
@@ -7949,7 +7763,7 @@
       <c r="Y1" s="260"/>
       <c r="Z1" s="261"/>
       <c r="AA1" s="241" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AB1" s="243"/>
       <c r="AC1" s="268" t="str">
@@ -7973,13 +7787,13 @@
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="241" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="242"/>
       <c r="C2" s="242"/>
       <c r="D2" s="243"/>
       <c r="E2" s="244" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F2" s="245"/>
       <c r="G2" s="245"/>
@@ -8003,7 +7817,7 @@
       <c r="Y2" s="263"/>
       <c r="Z2" s="264"/>
       <c r="AA2" s="241" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB2" s="243"/>
       <c r="AC2" s="247" t="str">
@@ -8027,13 +7841,13 @@
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="241" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="242"/>
       <c r="C3" s="242"/>
       <c r="D3" s="243"/>
       <c r="E3" s="244" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F3" s="245"/>
       <c r="G3" s="245"/>
@@ -8073,7 +7887,7 @@
     </row>
     <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -8099,14 +7913,14 @@
     </row>
     <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" s="238" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="239"/>
       <c r="D7" s="238" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="240"/>
       <c r="F7" s="239"/>
@@ -8116,7 +7930,7 @@
       <c r="H7" s="240"/>
       <c r="I7" s="239"/>
       <c r="J7" s="238" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K7" s="240"/>
       <c r="L7" s="240"/>
@@ -8125,7 +7939,7 @@
       <c r="O7" s="240"/>
       <c r="P7" s="239"/>
       <c r="Q7" s="238" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R7" s="240"/>
       <c r="S7" s="240"/>
@@ -8142,7 +7956,7 @@
       <c r="AD7" s="240"/>
       <c r="AE7" s="239"/>
       <c r="AF7" s="238" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG7" s="240"/>
       <c r="AH7" s="240"/>
@@ -8153,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="226" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C8" s="227"/>
       <c r="D8" s="228">
@@ -8162,12 +7976,12 @@
       <c r="E8" s="229"/>
       <c r="F8" s="230"/>
       <c r="G8" s="226" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H8" s="231"/>
       <c r="I8" s="227"/>
       <c r="J8" s="232" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K8" s="233"/>
       <c r="L8" s="233"/>
@@ -8176,7 +7990,7 @@
       <c r="O8" s="233"/>
       <c r="P8" s="234"/>
       <c r="Q8" s="232" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R8" s="233"/>
       <c r="S8" s="233"/>
@@ -8193,7 +8007,7 @@
       <c r="AD8" s="233"/>
       <c r="AE8" s="234"/>
       <c r="AF8" s="69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG8" s="70"/>
       <c r="AH8" s="70"/>
@@ -9465,7 +9279,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="241" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="242"/>
@@ -9484,7 +9298,7 @@
       <c r="M1" s="245"/>
       <c r="N1" s="246"/>
       <c r="O1" s="250" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P1" s="251"/>
       <c r="Q1" s="251"/>
@@ -9502,7 +9316,7 @@
       <c r="Y1" s="260"/>
       <c r="Z1" s="261"/>
       <c r="AA1" s="241" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AB1" s="243"/>
       <c r="AC1" s="268" t="str">
@@ -9524,7 +9338,7 @@
     </row>
     <row r="2" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="241" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="242"/>
       <c r="C2" s="242"/>
@@ -9555,7 +9369,7 @@
       <c r="Y2" s="263"/>
       <c r="Z2" s="264"/>
       <c r="AA2" s="241" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB2" s="243"/>
       <c r="AC2" s="268" t="str">
@@ -9577,7 +9391,7 @@
     </row>
     <row r="3" spans="1:38" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="241" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="242"/>
       <c r="C3" s="242"/>
@@ -9681,7 +9495,7 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
@@ -9742,7 +9556,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1">
       <c r="A7" s="28"/>
       <c r="B7" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -9782,7 +9596,7 @@
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -9821,7 +9635,7 @@
       <c r="A9" s="28"/>
       <c r="B9" s="30"/>
       <c r="C9" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -9860,7 +9674,7 @@
       <c r="A10" s="28"/>
       <c r="B10" s="30"/>
       <c r="C10" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -11141,7 +10955,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11151,17 +10965,17 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F6" s="72" t="s">
         <v>24</v>
@@ -11172,7 +10986,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="72" t="s">
         <v>25</v>
@@ -11201,7 +11015,7 @@
     <row r="9" spans="1:15" ht="243" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:15" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>11</v>
@@ -11245,7 +11059,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="274" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" s="275"/>
       <c r="C11" s="275"/>
@@ -11272,22 +11086,22 @@
         <v>114</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I12" s="85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
@@ -11304,14 +11118,14 @@
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
       <c r="F13" s="83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H13" s="89"/>
       <c r="I13" s="85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
@@ -11328,10 +11142,10 @@
         <v>115</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
@@ -11352,22 +11166,22 @@
         <v>116</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J15" s="86"/>
       <c r="K15" s="86"/>
@@ -11384,14 +11198,14 @@
       <c r="D16" s="88"/>
       <c r="E16" s="88"/>
       <c r="F16" s="83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G16" s="83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H16" s="89"/>
       <c r="I16" s="85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J16" s="86"/>
       <c r="K16" s="86"/>
@@ -11408,10 +11222,10 @@
         <v>57</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
@@ -11432,10 +11246,10 @@
         <v>58</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
@@ -11458,22 +11272,22 @@
         <v>117</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G19" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="84" t="s">
-        <v>193</v>
-      </c>
       <c r="I19" s="85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J19" s="86"/>
       <c r="K19" s="86"/>
@@ -11490,14 +11304,14 @@
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
       <c r="F20" s="83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H20" s="89"/>
       <c r="I20" s="85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
@@ -11514,10 +11328,10 @@
         <v>118</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
@@ -11538,10 +11352,10 @@
         <v>119</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E22" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
@@ -11562,10 +11376,10 @@
         <v>60</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
@@ -11586,10 +11400,10 @@
         <v>120</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
@@ -11612,10 +11426,10 @@
         <v>33</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E25" s="106" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
@@ -11636,10 +11450,10 @@
         <v>34</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E26" s="108" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
@@ -11660,10 +11474,10 @@
         <v>30</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E27" s="109" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
@@ -11684,10 +11498,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
@@ -11708,10 +11522,10 @@
         <v>31</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E29" s="98" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
@@ -11732,10 +11546,10 @@
         <v>32</v>
       </c>
       <c r="D30" s="110" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E30" s="110" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="93"/>
@@ -11758,10 +11572,10 @@
         <v>63</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
@@ -11782,10 +11596,10 @@
         <v>64</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E32" s="109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
@@ -11806,10 +11620,10 @@
         <v>65</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E33" s="109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F33" s="93"/>
       <c r="G33" s="93"/>
@@ -11830,10 +11644,10 @@
         <v>66</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E34" s="109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
@@ -11916,7 +11730,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -11926,17 +11740,17 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H6" s="72" t="s">
         <v>24</v>
@@ -11947,7 +11761,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H7" s="72" t="s">
         <v>25</v>
@@ -11958,7 +11772,7 @@
     </row>
     <row r="8" spans="1:16" ht="12" thickBot="1">
       <c r="A8" s="74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
@@ -11979,7 +11793,7 @@
     <row r="9" spans="1:16" ht="120.75" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:16" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>10</v>
@@ -12050,16 +11864,16 @@
         <v>89</v>
       </c>
       <c r="H11" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="84" t="s">
+      <c r="K11" s="85" t="s">
         <v>159</v>
-      </c>
-      <c r="K11" s="85" t="s">
-        <v>161</v>
       </c>
       <c r="L11" s="126"/>
       <c r="M11" s="126"/>
@@ -12069,7 +11883,7 @@
     </row>
     <row r="12" spans="1:16" s="79" customFormat="1" ht="56.25">
       <c r="A12" s="119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="129"/>
       <c r="C12" s="130"/>
@@ -12078,14 +11892,14 @@
       <c r="F12" s="132"/>
       <c r="G12" s="133"/>
       <c r="H12" s="83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I12" s="125" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J12" s="134"/>
       <c r="K12" s="85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L12" s="126"/>
       <c r="M12" s="126"/>
@@ -12095,7 +11909,7 @@
     </row>
     <row r="13" spans="1:16" s="79" customFormat="1" ht="56.25">
       <c r="A13" s="119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="129"/>
       <c r="C13" s="130"/>
@@ -12104,14 +11918,14 @@
       <c r="F13" s="136"/>
       <c r="G13" s="137"/>
       <c r="H13" s="83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I13" s="125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="134"/>
       <c r="K13" s="85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L13" s="126"/>
       <c r="M13" s="126"/>
@@ -12184,10 +11998,10 @@
         <v>129</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G16" s="153" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="154" t="s">
         <v>144</v>
@@ -12196,10 +12010,10 @@
         <v>145</v>
       </c>
       <c r="J16" s="155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K16" s="156" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L16" s="157"/>
       <c r="M16" s="157"/>
@@ -12218,20 +12032,20 @@
         <v>130</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G17" s="153" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H17" s="154" t="s">
         <v>146</v>
       </c>
       <c r="I17" s="154" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="J17" s="161"/>
       <c r="K17" s="156" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L17" s="157"/>
       <c r="M17" s="157"/>
@@ -12250,10 +12064,10 @@
         <v>131</v>
       </c>
       <c r="F18" s="164" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G18" s="164" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H18" s="165"/>
       <c r="I18" s="165"/>
@@ -12276,10 +12090,10 @@
         <v>132</v>
       </c>
       <c r="F19" s="164" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G19" s="164" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H19" s="165"/>
       <c r="I19" s="165"/>
@@ -12302,19 +12116,19 @@
         <v>133</v>
       </c>
       <c r="F20" s="167" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="167" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="167" t="s">
-        <v>236</v>
-      </c>
       <c r="H20" s="154" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="154" t="s">
-        <v>150</v>
-      </c>
       <c r="J20" s="155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K20" s="168">
         <v>2</v>
@@ -12327,7 +12141,7 @@
     </row>
     <row r="21" spans="1:16" ht="33.75">
       <c r="A21" s="149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="150"/>
       <c r="C21" s="130"/>
@@ -12336,10 +12150,10 @@
       <c r="F21" s="170"/>
       <c r="G21" s="170"/>
       <c r="H21" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="154" t="s">
         <v>151</v>
-      </c>
-      <c r="I21" s="154" t="s">
-        <v>152</v>
       </c>
       <c r="J21" s="171"/>
       <c r="K21" s="168">
@@ -12362,16 +12176,16 @@
         <v>134</v>
       </c>
       <c r="F22" s="153" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="153" t="s">
         <v>232</v>
       </c>
-      <c r="G22" s="153" t="s">
-        <v>236</v>
-      </c>
       <c r="H22" s="154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="154" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="J22" s="172"/>
       <c r="K22" s="168">
@@ -12474,10 +12288,10 @@
         <v>122</v>
       </c>
       <c r="F26" s="164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G26" s="164" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H26" s="165"/>
       <c r="I26" s="165"/>
@@ -12500,10 +12314,10 @@
         <v>123</v>
       </c>
       <c r="F27" s="164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G27" s="164" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H27" s="165"/>
       <c r="I27" s="165"/>
@@ -12526,10 +12340,10 @@
         <v>124</v>
       </c>
       <c r="F28" s="164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G28" s="164" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H28" s="165"/>
       <c r="I28" s="165"/>
@@ -12552,10 +12366,10 @@
         <v>125</v>
       </c>
       <c r="F29" s="164" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G29" s="164" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H29" s="165"/>
       <c r="I29" s="165"/>
@@ -12606,10 +12420,10 @@
       </c>
       <c r="E31" s="184"/>
       <c r="F31" s="153" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G31" s="153" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H31" s="168" t="s">
         <v>140</v>
@@ -12618,7 +12432,7 @@
         <v>141</v>
       </c>
       <c r="J31" s="155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K31" s="168">
         <v>3</v>
@@ -12640,10 +12454,10 @@
       </c>
       <c r="E32" s="189"/>
       <c r="F32" s="190" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G32" s="190" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H32" s="191"/>
       <c r="I32" s="191"/>
@@ -12666,10 +12480,10 @@
       </c>
       <c r="E33" s="184"/>
       <c r="F33" s="153" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G33" s="153" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H33" s="168" t="s">
         <v>142</v>
@@ -12678,7 +12492,7 @@
         <v>141</v>
       </c>
       <c r="J33" s="155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K33" s="168">
         <v>4</v>
@@ -12700,10 +12514,10 @@
       </c>
       <c r="E34" s="184"/>
       <c r="F34" s="153" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G34" s="153" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H34" s="168" t="s">
         <v>143</v>
@@ -12848,7 +12662,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -12858,17 +12672,17 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>24</v>
@@ -12908,7 +12722,7 @@
     <row r="9" spans="1:15" ht="88.5" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:15" s="79" customFormat="1">
       <c r="A10" s="76" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>10</v>
@@ -12973,10 +12787,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="206" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H11" s="206" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I11" s="207"/>
       <c r="J11" s="207"/>
@@ -13002,10 +12816,10 @@
         <v>23</v>
       </c>
       <c r="G12" s="206" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H12" s="206" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I12" s="207"/>
       <c r="J12" s="207"/>
@@ -13017,7 +12831,7 @@
     </row>
     <row r="13" spans="1:15" s="79" customFormat="1" ht="56.25">
       <c r="A13" s="208" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="210"/>
       <c r="C13" s="210"/>
@@ -13025,10 +12839,10 @@
       <c r="E13" s="210"/>
       <c r="F13" s="210"/>
       <c r="G13" s="206" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H13" s="206" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I13" s="207"/>
       <c r="J13" s="207"/>
